--- a/Hites_EEFF.xlsx
+++ b/Hites_EEFF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repo GitHub\Repo-GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E88997-6AD6-4CF9-9810-98C473C52216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A5567-5C2C-4C33-9B5C-1E8B3646CA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="208">
   <si>
     <t>DIVERSOS</t>
   </si>
@@ -771,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -820,6 +820,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26022,10 +26023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D109CC-16CA-4EDE-80EE-2E39295C51E1}">
-  <dimension ref="A1:DR54"/>
+  <dimension ref="A1:DN54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BL11" sqref="BL11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26033,7 +26034,7 @@
     <col min="29" max="29" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="str" cm="1">
         <f t="array" ref="A1:AC54">TRANSPOSE(activo!A1:BB29)</f>
         <v>Fechas</v>
@@ -26302,107 +26303,95 @@
       <c r="CK1" t="s">
         <v>93</v>
       </c>
-      <c r="CL1">
-        <v>0</v>
+      <c r="CL1" t="s">
+        <v>67</v>
       </c>
       <c r="CM1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="CN1" t="s">
-        <v>66</v>
-      </c>
-      <c r="CO1">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>95</v>
       </c>
       <c r="CP1" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="CQ1" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="CR1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="CS1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="CT1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="CU1" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="CV1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="CW1" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="CX1" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="CY1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="CZ1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="DA1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="DB1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="DC1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="DD1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="DE1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="DF1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="DG1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="DH1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="DI1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="DJ1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="DK1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="DL1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="DM1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="DN1" t="s">
-        <v>101</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>90</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>91</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DR1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>40268</v>
       </c>
@@ -26671,19 +26660,19 @@
         <v>-196058</v>
       </c>
       <c r="CL2">
-        <v>0</v>
+        <v>32222669</v>
       </c>
       <c r="CM2" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN2">
-        <v>3</v>
-      </c>
-      <c r="CO2">
-        <v>0</v>
-      </c>
-      <c r="CP2">
-        <v>32222669</v>
+        <v>3</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>3</v>
       </c>
       <c r="CQ2" t="s">
         <v>3</v>
@@ -26697,80 +26686,68 @@
       <c r="CT2" t="s">
         <v>3</v>
       </c>
-      <c r="CU2" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>3</v>
+      <c r="CU2">
+        <v>303850</v>
+      </c>
+      <c r="CV2">
+        <v>447569</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>23214</v>
       </c>
       <c r="CY2">
-        <v>303850</v>
-      </c>
-      <c r="CZ2">
-        <v>447569</v>
+        <v>428000</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>3</v>
       </c>
       <c r="DA2">
         <v>0</v>
       </c>
       <c r="DB2">
-        <v>23214</v>
+        <v>75304</v>
       </c>
       <c r="DC2">
-        <v>428000</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE2">
-        <v>0</v>
-      </c>
-      <c r="DF2">
-        <v>75304</v>
+        <v>-380896</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>3</v>
       </c>
       <c r="DG2">
-        <v>-380896</v>
+        <v>-262809</v>
       </c>
       <c r="DH2">
-        <v>0</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>3</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>3</v>
-      </c>
-      <c r="DK2">
-        <v>-262809</v>
+        <v>-66751</v>
+      </c>
+      <c r="DI2">
+        <v>-196058</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>3</v>
       </c>
       <c r="DL2">
-        <v>-66751</v>
+        <v>-194321</v>
       </c>
       <c r="DM2">
+        <v>1737</v>
+      </c>
+      <c r="DN2">
         <v>-196058</v>
       </c>
-      <c r="DN2">
-        <v>0</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>3</v>
-      </c>
-      <c r="DP2">
-        <v>-194321</v>
-      </c>
-      <c r="DQ2">
-        <v>1737</v>
-      </c>
-      <c r="DR2">
-        <v>-196058</v>
-      </c>
     </row>
-    <row r="3" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>40359</v>
       </c>
@@ -27039,19 +27016,19 @@
         <v>3190740</v>
       </c>
       <c r="CL3">
-        <v>0</v>
+        <v>78139954</v>
       </c>
       <c r="CM3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN3">
-        <v>6</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>78139954</v>
+        <v>3</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>3</v>
       </c>
       <c r="CQ3" t="s">
         <v>3</v>
@@ -27065,80 +27042,68 @@
       <c r="CT3" t="s">
         <v>3</v>
       </c>
-      <c r="CU3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>3</v>
+      <c r="CU3">
+        <v>-95523</v>
+      </c>
+      <c r="CV3">
+        <v>4635817</v>
+      </c>
+      <c r="CW3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>47801</v>
       </c>
       <c r="CY3">
-        <v>-95523</v>
-      </c>
-      <c r="CZ3">
-        <v>4635817</v>
+        <v>848346</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>3</v>
       </c>
       <c r="DA3">
         <v>0</v>
       </c>
       <c r="DB3">
-        <v>47801</v>
+        <v>30019</v>
       </c>
       <c r="DC3">
-        <v>848346</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE3">
-        <v>0</v>
-      </c>
-      <c r="DF3">
-        <v>30019</v>
+        <v>-1964</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>3</v>
       </c>
       <c r="DG3">
-        <v>-1964</v>
+        <v>3863327</v>
       </c>
       <c r="DH3">
-        <v>0</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>3</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>3</v>
+        <v>668890</v>
+      </c>
+      <c r="DI3">
+        <v>3194437</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>3863327</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>668890</v>
+        <v>3194437</v>
       </c>
       <c r="DM3">
-        <v>3194437</v>
+        <v>3697</v>
       </c>
       <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0</v>
-      </c>
-      <c r="DP3">
-        <v>3194437</v>
-      </c>
-      <c r="DQ3">
-        <v>3697</v>
-      </c>
-      <c r="DR3">
         <v>3190740</v>
       </c>
     </row>
-    <row r="4" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>40451</v>
       </c>
@@ -27407,19 +27372,19 @@
         <v>4704042</v>
       </c>
       <c r="CL4">
-        <v>0</v>
+        <v>119509907</v>
       </c>
       <c r="CM4" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN4">
-        <v>9</v>
-      </c>
-      <c r="CO4">
-        <v>0</v>
-      </c>
-      <c r="CP4">
-        <v>119509907</v>
+        <v>3</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>3</v>
       </c>
       <c r="CQ4" t="s">
         <v>3</v>
@@ -27433,80 +27398,68 @@
       <c r="CT4" t="s">
         <v>3</v>
       </c>
-      <c r="CU4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>3</v>
+      <c r="CU4">
+        <v>-146289</v>
+      </c>
+      <c r="CV4">
+        <v>6517602</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>63514</v>
       </c>
       <c r="CY4">
-        <v>-146289</v>
-      </c>
-      <c r="CZ4">
-        <v>6517602</v>
+        <v>1297809</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>3</v>
       </c>
       <c r="DA4">
         <v>0</v>
       </c>
       <c r="DB4">
-        <v>63514</v>
+        <v>380370</v>
       </c>
       <c r="DC4">
-        <v>1297809</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE4">
-        <v>0</v>
-      </c>
-      <c r="DF4">
-        <v>380370</v>
+        <v>5976</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>3</v>
       </c>
       <c r="DG4">
-        <v>5976</v>
+        <v>5669653</v>
       </c>
       <c r="DH4">
-        <v>0</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>3</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>3</v>
+        <v>959532</v>
+      </c>
+      <c r="DI4">
+        <v>4710121</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>5669653</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>959532</v>
+        <v>4710121</v>
       </c>
       <c r="DM4">
-        <v>4710121</v>
+        <v>6079</v>
       </c>
       <c r="DN4">
-        <v>0</v>
-      </c>
-      <c r="DO4">
-        <v>0</v>
-      </c>
-      <c r="DP4">
-        <v>4710121</v>
-      </c>
-      <c r="DQ4">
-        <v>6079</v>
-      </c>
-      <c r="DR4">
         <v>4704042</v>
       </c>
     </row>
-    <row r="5" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>40543</v>
       </c>
@@ -27775,19 +27728,19 @@
         <v>11228639</v>
       </c>
       <c r="CL5">
-        <v>0</v>
+        <v>183910997</v>
       </c>
       <c r="CM5" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN5">
-        <v>12</v>
-      </c>
-      <c r="CO5">
-        <v>0</v>
-      </c>
-      <c r="CP5">
-        <v>183910997</v>
+        <v>3</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>3</v>
       </c>
       <c r="CQ5" t="s">
         <v>3</v>
@@ -27801,80 +27754,68 @@
       <c r="CT5" t="s">
         <v>3</v>
       </c>
-      <c r="CU5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>3</v>
+      <c r="CU5">
+        <v>-697597</v>
+      </c>
+      <c r="CV5">
+        <v>14365028</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>110068</v>
       </c>
       <c r="CY5">
-        <v>-697597</v>
-      </c>
-      <c r="CZ5">
-        <v>14365028</v>
+        <v>1859494</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>3</v>
       </c>
       <c r="DA5">
         <v>0</v>
       </c>
       <c r="DB5">
-        <v>110068</v>
+        <v>684011</v>
       </c>
       <c r="DC5">
-        <v>1859494</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE5">
-        <v>0</v>
-      </c>
-      <c r="DF5">
-        <v>684011</v>
+        <v>382961</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>3</v>
       </c>
       <c r="DG5">
-        <v>382961</v>
+        <v>13682574</v>
       </c>
       <c r="DH5">
-        <v>0</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>3</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>3</v>
+        <v>2444978</v>
+      </c>
+      <c r="DI5">
+        <v>11237596</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>13682574</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>2444978</v>
+        <v>11237596</v>
       </c>
       <c r="DM5">
-        <v>11237596</v>
+        <v>8957</v>
       </c>
       <c r="DN5">
-        <v>0</v>
-      </c>
-      <c r="DO5">
-        <v>0</v>
-      </c>
-      <c r="DP5">
-        <v>11237596</v>
-      </c>
-      <c r="DQ5">
-        <v>8957</v>
-      </c>
-      <c r="DR5">
         <v>11228639</v>
       </c>
     </row>
-    <row r="6" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>40633</v>
       </c>
@@ -28143,19 +28084,19 @@
         <v>513631</v>
       </c>
       <c r="CL6">
-        <v>0</v>
+        <v>42967909</v>
       </c>
       <c r="CM6" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN6">
-        <v>3</v>
-      </c>
-      <c r="CO6">
-        <v>0</v>
-      </c>
-      <c r="CP6">
-        <v>42967909</v>
+        <v>3</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>3</v>
       </c>
       <c r="CQ6" t="s">
         <v>3</v>
@@ -28169,80 +28110,68 @@
       <c r="CT6" t="s">
         <v>3</v>
       </c>
-      <c r="CU6" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW6" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>3</v>
+      <c r="CU6">
+        <v>-41384</v>
+      </c>
+      <c r="CV6">
+        <v>1202909</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>53771</v>
       </c>
       <c r="CY6">
-        <v>-41384</v>
-      </c>
-      <c r="CZ6">
-        <v>1202909</v>
+        <v>729321</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>3</v>
       </c>
       <c r="DA6">
         <v>0</v>
       </c>
       <c r="DB6">
-        <v>53771</v>
+        <v>118308</v>
       </c>
       <c r="DC6">
-        <v>729321</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE6">
-        <v>0</v>
+        <v>-502</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>3</v>
       </c>
       <c r="DF6">
-        <v>118308</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>-502</v>
+        <v>645165</v>
       </c>
       <c r="DH6">
-        <v>0</v>
-      </c>
-      <c r="DI6" t="s">
-        <v>3</v>
+        <v>129080</v>
+      </c>
+      <c r="DI6">
+        <v>516085</v>
       </c>
       <c r="DJ6">
         <v>0</v>
       </c>
       <c r="DK6">
-        <v>645165</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>129080</v>
+        <v>516085</v>
       </c>
       <c r="DM6">
-        <v>516085</v>
+        <v>2454</v>
       </c>
       <c r="DN6">
-        <v>0</v>
-      </c>
-      <c r="DO6">
-        <v>0</v>
-      </c>
-      <c r="DP6">
-        <v>516085</v>
-      </c>
-      <c r="DQ6">
-        <v>2454</v>
-      </c>
-      <c r="DR6">
         <v>513631</v>
       </c>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>40724</v>
       </c>
@@ -28511,19 +28440,19 @@
         <v>4082327</v>
       </c>
       <c r="CL7">
-        <v>0</v>
+        <v>97223546</v>
       </c>
       <c r="CM7" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN7">
-        <v>6</v>
-      </c>
-      <c r="CO7">
-        <v>0</v>
-      </c>
-      <c r="CP7">
-        <v>97223546</v>
+        <v>3</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>3</v>
       </c>
       <c r="CQ7" t="s">
         <v>3</v>
@@ -28537,80 +28466,68 @@
       <c r="CT7" t="s">
         <v>3</v>
       </c>
-      <c r="CU7" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV7" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW7" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX7" t="s">
-        <v>3</v>
+      <c r="CU7">
+        <v>-117809</v>
+      </c>
+      <c r="CV7">
+        <v>6413908</v>
+      </c>
+      <c r="CW7">
+        <v>0</v>
+      </c>
+      <c r="CX7">
+        <v>107540</v>
       </c>
       <c r="CY7">
-        <v>-117809</v>
-      </c>
-      <c r="CZ7">
-        <v>6413908</v>
+        <v>1491784</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>3</v>
       </c>
       <c r="DA7">
         <v>0</v>
       </c>
       <c r="DB7">
-        <v>107540</v>
+        <v>144274</v>
       </c>
       <c r="DC7">
-        <v>1491784</v>
-      </c>
-      <c r="DD7" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE7">
-        <v>0</v>
-      </c>
-      <c r="DF7">
-        <v>144274</v>
+        <v>45014</v>
+      </c>
+      <c r="DD7">
+        <v>0</v>
+      </c>
+      <c r="DE7" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>3</v>
       </c>
       <c r="DG7">
-        <v>45014</v>
+        <v>5218952</v>
       </c>
       <c r="DH7">
-        <v>0</v>
-      </c>
-      <c r="DI7" t="s">
-        <v>3</v>
-      </c>
-      <c r="DJ7" t="s">
-        <v>3</v>
+        <v>1131470</v>
+      </c>
+      <c r="DI7">
+        <v>4087482</v>
+      </c>
+      <c r="DJ7">
+        <v>0</v>
       </c>
       <c r="DK7">
-        <v>5218952</v>
+        <v>0</v>
       </c>
       <c r="DL7">
-        <v>1131470</v>
+        <v>4087482</v>
       </c>
       <c r="DM7">
-        <v>4087482</v>
+        <v>5155</v>
       </c>
       <c r="DN7">
-        <v>0</v>
-      </c>
-      <c r="DO7">
-        <v>0</v>
-      </c>
-      <c r="DP7">
-        <v>4087482</v>
-      </c>
-      <c r="DQ7">
-        <v>5155</v>
-      </c>
-      <c r="DR7">
         <v>4082327</v>
       </c>
     </row>
-    <row r="8" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>40816</v>
       </c>
@@ -28879,19 +28796,19 @@
         <v>5428721</v>
       </c>
       <c r="CL8">
-        <v>0</v>
+        <v>150237307</v>
       </c>
       <c r="CM8" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN8">
-        <v>9</v>
-      </c>
-      <c r="CO8">
-        <v>0</v>
-      </c>
-      <c r="CP8">
-        <v>150237307</v>
+        <v>3</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>3</v>
       </c>
       <c r="CQ8" t="s">
         <v>3</v>
@@ -28905,80 +28822,68 @@
       <c r="CT8" t="s">
         <v>3</v>
       </c>
-      <c r="CU8" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV8" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW8" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX8" t="s">
-        <v>3</v>
+      <c r="CU8">
+        <v>-135416</v>
+      </c>
+      <c r="CV8">
+        <v>8649127</v>
+      </c>
+      <c r="CW8">
+        <v>0</v>
+      </c>
+      <c r="CX8">
+        <v>171053</v>
       </c>
       <c r="CY8">
-        <v>-135416</v>
-      </c>
-      <c r="CZ8">
-        <v>8649127</v>
+        <v>2482319</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>3</v>
       </c>
       <c r="DA8">
         <v>0</v>
       </c>
       <c r="DB8">
-        <v>171053</v>
+        <v>144411</v>
       </c>
       <c r="DC8">
-        <v>2482319</v>
-      </c>
-      <c r="DD8" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE8">
-        <v>0</v>
-      </c>
-      <c r="DF8">
-        <v>144411</v>
+        <v>36960</v>
+      </c>
+      <c r="DD8">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>3</v>
       </c>
       <c r="DG8">
-        <v>36960</v>
+        <v>6519232</v>
       </c>
       <c r="DH8">
-        <v>0</v>
-      </c>
-      <c r="DI8" t="s">
-        <v>3</v>
-      </c>
-      <c r="DJ8" t="s">
-        <v>3</v>
+        <v>1082820</v>
+      </c>
+      <c r="DI8">
+        <v>5436412</v>
+      </c>
+      <c r="DJ8">
+        <v>0</v>
       </c>
       <c r="DK8">
-        <v>6519232</v>
+        <v>0</v>
       </c>
       <c r="DL8">
-        <v>1082820</v>
+        <v>5436412</v>
       </c>
       <c r="DM8">
-        <v>5436412</v>
+        <v>7691</v>
       </c>
       <c r="DN8">
-        <v>0</v>
-      </c>
-      <c r="DO8">
-        <v>0</v>
-      </c>
-      <c r="DP8">
-        <v>5436412</v>
-      </c>
-      <c r="DQ8">
-        <v>7691</v>
-      </c>
-      <c r="DR8">
         <v>5428721</v>
       </c>
     </row>
-    <row r="9" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>40908</v>
       </c>
@@ -29247,19 +29152,19 @@
         <v>12282510</v>
       </c>
       <c r="CL9">
-        <v>0</v>
+        <v>227512020</v>
       </c>
       <c r="CM9" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN9">
-        <v>12</v>
-      </c>
-      <c r="CO9">
-        <v>0</v>
-      </c>
-      <c r="CP9">
-        <v>227512020</v>
+        <v>3</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>3</v>
       </c>
       <c r="CQ9" t="s">
         <v>3</v>
@@ -29273,80 +29178,68 @@
       <c r="CT9" t="s">
         <v>3</v>
       </c>
-      <c r="CU9" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV9" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW9" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX9" t="s">
-        <v>3</v>
+      <c r="CU9">
+        <v>-1093906</v>
+      </c>
+      <c r="CV9">
+        <v>17352189</v>
+      </c>
+      <c r="CW9">
+        <v>0</v>
+      </c>
+      <c r="CX9">
+        <v>243722</v>
       </c>
       <c r="CY9">
-        <v>-1093906</v>
-      </c>
-      <c r="CZ9">
-        <v>17352189</v>
+        <v>3581645</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>3</v>
       </c>
       <c r="DA9">
         <v>0</v>
       </c>
       <c r="DB9">
-        <v>243722</v>
+        <v>-381846</v>
       </c>
       <c r="DC9">
-        <v>3581645</v>
-      </c>
-      <c r="DD9" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE9">
-        <v>0</v>
-      </c>
-      <c r="DF9">
-        <v>-381846</v>
+        <v>93184</v>
+      </c>
+      <c r="DD9">
+        <v>0</v>
+      </c>
+      <c r="DE9" t="s">
+        <v>3</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>3</v>
       </c>
       <c r="DG9">
-        <v>93184</v>
+        <v>13725604</v>
       </c>
       <c r="DH9">
-        <v>0</v>
-      </c>
-      <c r="DI9" t="s">
-        <v>3</v>
-      </c>
-      <c r="DJ9" t="s">
-        <v>3</v>
+        <v>1432750</v>
+      </c>
+      <c r="DI9">
+        <v>12292854</v>
+      </c>
+      <c r="DJ9">
+        <v>0</v>
       </c>
       <c r="DK9">
-        <v>13725604</v>
+        <v>0</v>
       </c>
       <c r="DL9">
-        <v>1432750</v>
+        <v>12292854</v>
       </c>
       <c r="DM9">
-        <v>12292854</v>
+        <v>10344</v>
       </c>
       <c r="DN9">
-        <v>0</v>
-      </c>
-      <c r="DO9">
-        <v>0</v>
-      </c>
-      <c r="DP9">
-        <v>12292854</v>
-      </c>
-      <c r="DQ9">
-        <v>10344</v>
-      </c>
-      <c r="DR9">
         <v>12282510</v>
       </c>
     </row>
-    <row r="10" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>40999</v>
       </c>
@@ -29615,19 +29508,19 @@
         <v>1921711</v>
       </c>
       <c r="CL10">
-        <v>0</v>
+        <v>52444255</v>
       </c>
       <c r="CM10" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN10">
-        <v>3</v>
-      </c>
-      <c r="CO10">
-        <v>0</v>
-      </c>
-      <c r="CP10">
-        <v>52444255</v>
+        <v>3</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>3</v>
       </c>
       <c r="CQ10" t="s">
         <v>3</v>
@@ -29641,80 +29534,68 @@
       <c r="CT10" t="s">
         <v>3</v>
       </c>
-      <c r="CU10" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV10" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW10" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX10" t="s">
-        <v>3</v>
+      <c r="CU10">
+        <v>-139898</v>
+      </c>
+      <c r="CV10">
+        <v>2816431</v>
+      </c>
+      <c r="CW10">
+        <v>0</v>
+      </c>
+      <c r="CX10">
+        <v>83762</v>
       </c>
       <c r="CY10">
-        <v>-139898</v>
-      </c>
-      <c r="CZ10">
-        <v>2816431</v>
+        <v>1154113</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>3</v>
       </c>
       <c r="DA10">
         <v>0</v>
       </c>
       <c r="DB10">
-        <v>83762</v>
+        <v>500795</v>
       </c>
       <c r="DC10">
-        <v>1154113</v>
-      </c>
-      <c r="DD10" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE10">
-        <v>0</v>
+        <v>-41850</v>
+      </c>
+      <c r="DD10">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="s">
+        <v>3</v>
       </c>
       <c r="DF10">
-        <v>500795</v>
+        <v>0</v>
       </c>
       <c r="DG10">
-        <v>-41850</v>
+        <v>2205025</v>
       </c>
       <c r="DH10">
-        <v>0</v>
-      </c>
-      <c r="DI10" t="s">
-        <v>3</v>
+        <v>280664</v>
+      </c>
+      <c r="DI10">
+        <v>1924361</v>
       </c>
       <c r="DJ10">
         <v>0</v>
       </c>
       <c r="DK10">
-        <v>2205025</v>
+        <v>0</v>
       </c>
       <c r="DL10">
-        <v>280664</v>
+        <v>1924361</v>
       </c>
       <c r="DM10">
-        <v>1924361</v>
+        <v>2650</v>
       </c>
       <c r="DN10">
-        <v>0</v>
-      </c>
-      <c r="DO10">
-        <v>0</v>
-      </c>
-      <c r="DP10">
-        <v>1924361</v>
-      </c>
-      <c r="DQ10">
-        <v>2650</v>
-      </c>
-      <c r="DR10">
         <v>1921711</v>
       </c>
     </row>
-    <row r="11" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>41090</v>
       </c>
@@ -29983,19 +29864,19 @@
         <v>5117113</v>
       </c>
       <c r="CL11">
-        <v>0</v>
+        <v>114958054</v>
       </c>
       <c r="CM11" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN11">
-        <v>6</v>
-      </c>
-      <c r="CO11">
-        <v>0</v>
-      </c>
-      <c r="CP11">
-        <v>114958054</v>
+        <v>3</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>3</v>
       </c>
       <c r="CQ11" t="s">
         <v>3</v>
@@ -30009,80 +29890,68 @@
       <c r="CT11" t="s">
         <v>3</v>
       </c>
-      <c r="CU11" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV11" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW11" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX11" t="s">
-        <v>3</v>
+      <c r="CU11">
+        <v>-219709</v>
+      </c>
+      <c r="CV11">
+        <v>8312624</v>
+      </c>
+      <c r="CW11">
+        <v>0</v>
+      </c>
+      <c r="CX11">
+        <v>190376</v>
       </c>
       <c r="CY11">
-        <v>-219709</v>
-      </c>
-      <c r="CZ11">
-        <v>8312624</v>
+        <v>2752285</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>3</v>
       </c>
       <c r="DA11">
         <v>0</v>
       </c>
       <c r="DB11">
-        <v>190376</v>
+        <v>413984</v>
       </c>
       <c r="DC11">
-        <v>2752285</v>
-      </c>
-      <c r="DD11" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE11">
-        <v>0</v>
+        <v>-30544</v>
+      </c>
+      <c r="DD11">
+        <v>0</v>
+      </c>
+      <c r="DE11" t="s">
+        <v>3</v>
       </c>
       <c r="DF11">
-        <v>413984</v>
+        <v>0</v>
       </c>
       <c r="DG11">
-        <v>-30544</v>
+        <v>6134155</v>
       </c>
       <c r="DH11">
-        <v>0</v>
-      </c>
-      <c r="DI11" t="s">
-        <v>3</v>
+        <v>1012133</v>
+      </c>
+      <c r="DI11">
+        <v>5122022</v>
       </c>
       <c r="DJ11">
         <v>0</v>
       </c>
       <c r="DK11">
-        <v>6134155</v>
+        <v>0</v>
       </c>
       <c r="DL11">
-        <v>1012133</v>
+        <v>5122022</v>
       </c>
       <c r="DM11">
-        <v>5122022</v>
+        <v>4909</v>
       </c>
       <c r="DN11">
-        <v>0</v>
-      </c>
-      <c r="DO11">
-        <v>0</v>
-      </c>
-      <c r="DP11">
-        <v>5122022</v>
-      </c>
-      <c r="DQ11">
-        <v>4909</v>
-      </c>
-      <c r="DR11">
         <v>5117113</v>
       </c>
     </row>
-    <row r="12" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>41182</v>
       </c>
@@ -30351,19 +30220,19 @@
         <v>6383522</v>
       </c>
       <c r="CL12">
-        <v>0</v>
+        <v>173789284</v>
       </c>
       <c r="CM12" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN12">
-        <v>9</v>
-      </c>
-      <c r="CO12">
-        <v>0</v>
-      </c>
-      <c r="CP12">
-        <v>173789284</v>
+        <v>3</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>3</v>
       </c>
       <c r="CQ12" t="s">
         <v>3</v>
@@ -30377,80 +30246,68 @@
       <c r="CT12" t="s">
         <v>3</v>
       </c>
-      <c r="CU12" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV12" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW12" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX12" t="s">
-        <v>3</v>
+      <c r="CU12">
+        <v>-214923</v>
+      </c>
+      <c r="CV12">
+        <v>11128081</v>
+      </c>
+      <c r="CW12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>364665</v>
       </c>
       <c r="CY12">
-        <v>-214923</v>
-      </c>
-      <c r="CZ12">
-        <v>11128081</v>
+        <v>4425988</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>3</v>
       </c>
       <c r="DA12">
         <v>0</v>
       </c>
       <c r="DB12">
-        <v>364665</v>
+        <v>676504</v>
       </c>
       <c r="DC12">
-        <v>4425988</v>
-      </c>
-      <c r="DD12" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE12">
-        <v>0</v>
+        <v>-15357</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DE12" t="s">
+        <v>3</v>
       </c>
       <c r="DF12">
-        <v>676504</v>
+        <v>0</v>
       </c>
       <c r="DG12">
-        <v>-15357</v>
+        <v>7727905</v>
       </c>
       <c r="DH12">
-        <v>0</v>
-      </c>
-      <c r="DI12" t="s">
-        <v>3</v>
+        <v>1336925</v>
+      </c>
+      <c r="DI12">
+        <v>6390980</v>
       </c>
       <c r="DJ12">
         <v>0</v>
       </c>
       <c r="DK12">
-        <v>7727905</v>
+        <v>0</v>
       </c>
       <c r="DL12">
-        <v>1336925</v>
+        <v>6390980</v>
       </c>
       <c r="DM12">
-        <v>6390980</v>
+        <v>7458</v>
       </c>
       <c r="DN12">
-        <v>0</v>
-      </c>
-      <c r="DO12">
-        <v>0</v>
-      </c>
-      <c r="DP12">
-        <v>6390980</v>
-      </c>
-      <c r="DQ12">
-        <v>7458</v>
-      </c>
-      <c r="DR12">
         <v>6383522</v>
       </c>
     </row>
-    <row r="13" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>41274</v>
       </c>
@@ -30719,19 +30576,19 @@
         <v>13489895</v>
       </c>
       <c r="CL13">
-        <v>0</v>
+        <v>253830651</v>
       </c>
       <c r="CM13" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN13">
-        <v>12</v>
-      </c>
-      <c r="CO13">
-        <v>0</v>
-      </c>
-      <c r="CP13">
-        <v>253830651</v>
+        <v>3</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>3</v>
       </c>
       <c r="CQ13" t="s">
         <v>3</v>
@@ -30745,80 +30602,68 @@
       <c r="CT13" t="s">
         <v>3</v>
       </c>
-      <c r="CU13" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV13" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW13" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX13" t="s">
-        <v>3</v>
+      <c r="CU13">
+        <v>-245858</v>
+      </c>
+      <c r="CV13">
+        <v>20187129</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CX13">
+        <v>618438</v>
       </c>
       <c r="CY13">
-        <v>-245858</v>
-      </c>
-      <c r="CZ13">
-        <v>20187129</v>
+        <v>6233167</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>3</v>
       </c>
       <c r="DA13">
         <v>0</v>
       </c>
       <c r="DB13">
-        <v>618438</v>
+        <v>693238</v>
       </c>
       <c r="DC13">
-        <v>6233167</v>
-      </c>
-      <c r="DD13" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE13">
-        <v>0</v>
+        <v>111154</v>
+      </c>
+      <c r="DD13">
+        <v>0</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>3</v>
       </c>
       <c r="DF13">
-        <v>693238</v>
+        <v>0</v>
       </c>
       <c r="DG13">
-        <v>111154</v>
+        <v>15376792</v>
       </c>
       <c r="DH13">
-        <v>0</v>
-      </c>
-      <c r="DI13" t="s">
-        <v>3</v>
+        <v>1876515</v>
+      </c>
+      <c r="DI13">
+        <v>13500277</v>
       </c>
       <c r="DJ13">
         <v>0</v>
       </c>
       <c r="DK13">
-        <v>15376792</v>
+        <v>0</v>
       </c>
       <c r="DL13">
-        <v>1876515</v>
+        <v>13500277</v>
       </c>
       <c r="DM13">
-        <v>13500277</v>
+        <v>10382</v>
       </c>
       <c r="DN13">
-        <v>0</v>
-      </c>
-      <c r="DO13">
-        <v>0</v>
-      </c>
-      <c r="DP13">
-        <v>13500277</v>
-      </c>
-      <c r="DQ13">
-        <v>10382</v>
-      </c>
-      <c r="DR13">
         <v>13489895</v>
       </c>
     </row>
-    <row r="14" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>41364</v>
       </c>
@@ -31087,19 +30932,19 @@
         <v>1422631</v>
       </c>
       <c r="CL14">
-        <v>0</v>
+        <v>54080532</v>
       </c>
       <c r="CM14" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN14">
-        <v>3</v>
-      </c>
-      <c r="CO14">
-        <v>0</v>
-      </c>
-      <c r="CP14">
-        <v>54080532</v>
+        <v>3</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>3</v>
       </c>
       <c r="CQ14" t="s">
         <v>3</v>
@@ -31113,80 +30958,68 @@
       <c r="CT14" t="s">
         <v>3</v>
       </c>
-      <c r="CU14" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV14" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW14" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX14" t="s">
-        <v>3</v>
+      <c r="CU14">
+        <v>-30175</v>
+      </c>
+      <c r="CV14">
+        <v>2789694</v>
+      </c>
+      <c r="CW14">
+        <v>0</v>
+      </c>
+      <c r="CX14">
+        <v>460269</v>
       </c>
       <c r="CY14">
-        <v>-30175</v>
-      </c>
-      <c r="CZ14">
-        <v>2789694</v>
+        <v>1725510</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>3</v>
       </c>
       <c r="DA14">
         <v>0</v>
       </c>
       <c r="DB14">
-        <v>460269</v>
+        <v>156654</v>
       </c>
       <c r="DC14">
-        <v>1725510</v>
-      </c>
-      <c r="DD14" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE14">
-        <v>0</v>
+        <v>-42908</v>
+      </c>
+      <c r="DD14">
+        <v>0</v>
+      </c>
+      <c r="DE14" t="s">
+        <v>3</v>
       </c>
       <c r="DF14">
-        <v>156654</v>
+        <v>0</v>
       </c>
       <c r="DG14">
-        <v>-42908</v>
+        <v>1638199</v>
       </c>
       <c r="DH14">
-        <v>0</v>
-      </c>
-      <c r="DI14" t="s">
-        <v>3</v>
+        <v>212966</v>
+      </c>
+      <c r="DI14">
+        <v>1425233</v>
       </c>
       <c r="DJ14">
         <v>0</v>
       </c>
       <c r="DK14">
-        <v>1638199</v>
+        <v>0</v>
       </c>
       <c r="DL14">
-        <v>212966</v>
+        <v>1425233</v>
       </c>
       <c r="DM14">
-        <v>1425233</v>
+        <v>2602</v>
       </c>
       <c r="DN14">
-        <v>0</v>
-      </c>
-      <c r="DO14">
-        <v>0</v>
-      </c>
-      <c r="DP14">
-        <v>1425233</v>
-      </c>
-      <c r="DQ14">
-        <v>2602</v>
-      </c>
-      <c r="DR14">
         <v>1422631</v>
       </c>
     </row>
-    <row r="15" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>41455</v>
       </c>
@@ -31214,7 +31047,7 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="18">
         <v>27319137</v>
       </c>
       <c r="K15">
@@ -31455,19 +31288,19 @@
         <v>5712865</v>
       </c>
       <c r="CL15">
-        <v>0</v>
+        <v>120538647</v>
       </c>
       <c r="CM15" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN15">
-        <v>6</v>
-      </c>
-      <c r="CO15">
-        <v>0</v>
-      </c>
-      <c r="CP15">
-        <v>120538647</v>
+        <v>3</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>3</v>
       </c>
       <c r="CQ15" t="s">
         <v>3</v>
@@ -31481,80 +31314,68 @@
       <c r="CT15" t="s">
         <v>3</v>
       </c>
-      <c r="CU15" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV15" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW15" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX15" t="s">
-        <v>3</v>
+      <c r="CU15">
+        <v>-73128</v>
+      </c>
+      <c r="CV15">
+        <v>9622365</v>
+      </c>
+      <c r="CW15">
+        <v>0</v>
+      </c>
+      <c r="CX15">
+        <v>897704</v>
       </c>
       <c r="CY15">
-        <v>-73128</v>
-      </c>
-      <c r="CZ15">
-        <v>9622365</v>
+        <v>3447972</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>3</v>
       </c>
       <c r="DA15">
         <v>0</v>
       </c>
       <c r="DB15">
-        <v>897704</v>
+        <v>-188880</v>
       </c>
       <c r="DC15">
-        <v>3447972</v>
-      </c>
-      <c r="DD15" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE15">
-        <v>0</v>
+        <v>-10901</v>
+      </c>
+      <c r="DD15">
+        <v>0</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>3</v>
       </c>
       <c r="DF15">
-        <v>-188880</v>
+        <v>0</v>
       </c>
       <c r="DG15">
-        <v>-10901</v>
+        <v>6872316</v>
       </c>
       <c r="DH15">
-        <v>0</v>
-      </c>
-      <c r="DI15" t="s">
-        <v>3</v>
+        <v>1154549</v>
+      </c>
+      <c r="DI15">
+        <v>5717767</v>
       </c>
       <c r="DJ15">
         <v>0</v>
       </c>
       <c r="DK15">
-        <v>6872316</v>
+        <v>0</v>
       </c>
       <c r="DL15">
-        <v>1154549</v>
+        <v>5717767</v>
       </c>
       <c r="DM15">
-        <v>5717767</v>
+        <v>4902</v>
       </c>
       <c r="DN15">
-        <v>0</v>
-      </c>
-      <c r="DO15">
-        <v>0</v>
-      </c>
-      <c r="DP15">
-        <v>5717767</v>
-      </c>
-      <c r="DQ15">
-        <v>4902</v>
-      </c>
-      <c r="DR15">
         <v>5712865</v>
       </c>
     </row>
-    <row r="16" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>41547</v>
       </c>
@@ -31823,19 +31644,19 @@
         <v>8099926</v>
       </c>
       <c r="CL16">
-        <v>0</v>
+        <v>184760023</v>
       </c>
       <c r="CM16" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN16">
-        <v>9</v>
-      </c>
-      <c r="CO16">
-        <v>0</v>
-      </c>
-      <c r="CP16">
-        <v>184760023</v>
+        <v>3</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>3</v>
       </c>
       <c r="CQ16" t="s">
         <v>3</v>
@@ -31849,80 +31670,68 @@
       <c r="CT16" t="s">
         <v>3</v>
       </c>
-      <c r="CU16" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV16" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW16" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX16" t="s">
-        <v>3</v>
+      <c r="CU16">
+        <v>-104553</v>
+      </c>
+      <c r="CV16">
+        <v>14116966</v>
+      </c>
+      <c r="CW16">
+        <v>0</v>
+      </c>
+      <c r="CX16">
+        <v>1309860</v>
       </c>
       <c r="CY16">
-        <v>-104553</v>
-      </c>
-      <c r="CZ16">
-        <v>14116966</v>
+        <v>5146256</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>3</v>
       </c>
       <c r="DA16">
         <v>0</v>
       </c>
       <c r="DB16">
-        <v>1309860</v>
+        <v>-248362</v>
       </c>
       <c r="DC16">
-        <v>5146256</v>
-      </c>
-      <c r="DD16" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE16">
-        <v>0</v>
+        <v>-287246</v>
+      </c>
+      <c r="DD16">
+        <v>0</v>
+      </c>
+      <c r="DE16" t="s">
+        <v>3</v>
       </c>
       <c r="DF16">
-        <v>-248362</v>
+        <v>0</v>
       </c>
       <c r="DG16">
-        <v>-287246</v>
+        <v>9744962</v>
       </c>
       <c r="DH16">
-        <v>0</v>
-      </c>
-      <c r="DI16" t="s">
-        <v>3</v>
+        <v>1637154</v>
+      </c>
+      <c r="DI16">
+        <v>8107808</v>
       </c>
       <c r="DJ16">
         <v>0</v>
       </c>
       <c r="DK16">
-        <v>9744962</v>
+        <v>0</v>
       </c>
       <c r="DL16">
-        <v>1637154</v>
+        <v>8107808</v>
       </c>
       <c r="DM16">
-        <v>8107808</v>
+        <v>7882</v>
       </c>
       <c r="DN16">
-        <v>0</v>
-      </c>
-      <c r="DO16">
-        <v>0</v>
-      </c>
-      <c r="DP16">
-        <v>8107808</v>
-      </c>
-      <c r="DQ16">
-        <v>7882</v>
-      </c>
-      <c r="DR16">
         <v>8099926</v>
       </c>
     </row>
-    <row r="17" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>41639</v>
       </c>
@@ -32191,19 +32000,19 @@
         <v>15123693</v>
       </c>
       <c r="CL17">
-        <v>0</v>
+        <v>271056964</v>
       </c>
       <c r="CM17" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN17">
-        <v>12</v>
-      </c>
-      <c r="CO17">
-        <v>0</v>
-      </c>
-      <c r="CP17">
-        <v>271056964</v>
+        <v>3</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>3</v>
       </c>
       <c r="CQ17" t="s">
         <v>3</v>
@@ -32217,80 +32026,68 @@
       <c r="CT17" t="s">
         <v>3</v>
       </c>
-      <c r="CU17" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV17" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW17" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX17" t="s">
-        <v>3</v>
+      <c r="CU17">
+        <v>-145785</v>
+      </c>
+      <c r="CV17">
+        <v>23802801</v>
+      </c>
+      <c r="CW17">
+        <v>0</v>
+      </c>
+      <c r="CX17">
+        <v>1657428</v>
       </c>
       <c r="CY17">
-        <v>-145785</v>
-      </c>
-      <c r="CZ17">
-        <v>23802801</v>
+        <v>6738389</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>3</v>
       </c>
       <c r="DA17">
         <v>0</v>
       </c>
       <c r="DB17">
-        <v>1657428</v>
+        <v>-552683</v>
       </c>
       <c r="DC17">
-        <v>6738389</v>
-      </c>
-      <c r="DD17" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE17">
-        <v>0</v>
+        <v>-496387</v>
+      </c>
+      <c r="DD17">
+        <v>0</v>
+      </c>
+      <c r="DE17" t="s">
+        <v>3</v>
       </c>
       <c r="DF17">
-        <v>-552683</v>
+        <v>0</v>
       </c>
       <c r="DG17">
-        <v>-496387</v>
+        <v>17672770</v>
       </c>
       <c r="DH17">
-        <v>0</v>
-      </c>
-      <c r="DI17" t="s">
-        <v>3</v>
+        <v>2539415</v>
+      </c>
+      <c r="DI17">
+        <v>15133355</v>
       </c>
       <c r="DJ17">
         <v>0</v>
       </c>
       <c r="DK17">
-        <v>17672770</v>
+        <v>0</v>
       </c>
       <c r="DL17">
-        <v>2539415</v>
+        <v>15133355</v>
       </c>
       <c r="DM17">
-        <v>15133355</v>
+        <v>9662</v>
       </c>
       <c r="DN17">
-        <v>0</v>
-      </c>
-      <c r="DO17">
-        <v>0</v>
-      </c>
-      <c r="DP17">
-        <v>15133355</v>
-      </c>
-      <c r="DQ17">
-        <v>9662</v>
-      </c>
-      <c r="DR17">
         <v>15123693</v>
       </c>
     </row>
-    <row r="18" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>41729</v>
       </c>
@@ -32559,19 +32356,19 @@
         <v>990567</v>
       </c>
       <c r="CL18">
-        <v>0</v>
+        <v>59775159</v>
       </c>
       <c r="CM18" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN18">
-        <v>3</v>
-      </c>
-      <c r="CO18">
-        <v>0</v>
-      </c>
-      <c r="CP18">
-        <v>59775159</v>
+        <v>3</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>3</v>
       </c>
       <c r="CQ18" t="s">
         <v>3</v>
@@ -32585,80 +32382,68 @@
       <c r="CT18" t="s">
         <v>3</v>
       </c>
-      <c r="CU18" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV18" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW18" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX18" t="s">
-        <v>3</v>
+      <c r="CU18">
+        <v>9313</v>
+      </c>
+      <c r="CV18">
+        <v>3372145</v>
+      </c>
+      <c r="CW18">
+        <v>0</v>
+      </c>
+      <c r="CX18">
+        <v>310770</v>
       </c>
       <c r="CY18">
-        <v>9313</v>
-      </c>
-      <c r="CZ18">
-        <v>3372145</v>
+        <v>1560440</v>
+      </c>
+      <c r="CZ18" t="s">
+        <v>3</v>
       </c>
       <c r="DA18">
         <v>0</v>
       </c>
       <c r="DB18">
-        <v>310770</v>
+        <v>-634984</v>
       </c>
       <c r="DC18">
-        <v>1560440</v>
-      </c>
-      <c r="DD18" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE18">
-        <v>0</v>
+        <v>-331895</v>
+      </c>
+      <c r="DD18">
+        <v>0</v>
+      </c>
+      <c r="DE18" t="s">
+        <v>3</v>
       </c>
       <c r="DF18">
-        <v>-634984</v>
+        <v>0</v>
       </c>
       <c r="DG18">
-        <v>-331895</v>
+        <v>1155596</v>
       </c>
       <c r="DH18">
-        <v>0</v>
-      </c>
-      <c r="DI18" t="s">
-        <v>3</v>
+        <v>161783</v>
+      </c>
+      <c r="DI18">
+        <v>993813</v>
       </c>
       <c r="DJ18">
         <v>0</v>
       </c>
       <c r="DK18">
-        <v>1155596</v>
+        <v>0</v>
       </c>
       <c r="DL18">
-        <v>161783</v>
+        <v>993813</v>
       </c>
       <c r="DM18">
-        <v>993813</v>
+        <v>3246</v>
       </c>
       <c r="DN18">
-        <v>0</v>
-      </c>
-      <c r="DO18">
-        <v>0</v>
-      </c>
-      <c r="DP18">
-        <v>993813</v>
-      </c>
-      <c r="DQ18">
-        <v>3246</v>
-      </c>
-      <c r="DR18">
         <v>990567</v>
       </c>
     </row>
-    <row r="19" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>41820</v>
       </c>
@@ -32927,19 +32712,19 @@
         <v>4269750</v>
       </c>
       <c r="CL19">
-        <v>0</v>
+        <v>128393622</v>
       </c>
       <c r="CM19" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN19">
-        <v>6</v>
-      </c>
-      <c r="CO19">
-        <v>0</v>
-      </c>
-      <c r="CP19">
-        <v>128393622</v>
+        <v>3</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>3</v>
       </c>
       <c r="CQ19" t="s">
         <v>3</v>
@@ -32953,80 +32738,68 @@
       <c r="CT19" t="s">
         <v>3</v>
       </c>
-      <c r="CU19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX19" t="s">
-        <v>3</v>
+      <c r="CU19">
+        <v>-144280</v>
+      </c>
+      <c r="CV19">
+        <v>9401614</v>
+      </c>
+      <c r="CW19">
+        <v>0</v>
+      </c>
+      <c r="CX19">
+        <v>513199</v>
       </c>
       <c r="CY19">
-        <v>-144280</v>
-      </c>
-      <c r="CZ19">
-        <v>9401614</v>
+        <v>3013376</v>
+      </c>
+      <c r="CZ19" t="s">
+        <v>3</v>
       </c>
       <c r="DA19">
         <v>0</v>
       </c>
       <c r="DB19">
-        <v>513199</v>
+        <v>-778858</v>
       </c>
       <c r="DC19">
-        <v>3013376</v>
-      </c>
-      <c r="DD19" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE19">
-        <v>0</v>
+        <v>-910943</v>
+      </c>
+      <c r="DD19">
+        <v>0</v>
+      </c>
+      <c r="DE19" t="s">
+        <v>3</v>
       </c>
       <c r="DF19">
-        <v>-778858</v>
+        <v>0</v>
       </c>
       <c r="DG19">
-        <v>-910943</v>
+        <v>5211636</v>
       </c>
       <c r="DH19">
-        <v>0</v>
-      </c>
-      <c r="DI19" t="s">
-        <v>3</v>
+        <v>938094</v>
+      </c>
+      <c r="DI19">
+        <v>4273542</v>
       </c>
       <c r="DJ19">
         <v>0</v>
       </c>
       <c r="DK19">
-        <v>5211636</v>
+        <v>0</v>
       </c>
       <c r="DL19">
-        <v>938094</v>
+        <v>4273542</v>
       </c>
       <c r="DM19">
-        <v>4273542</v>
+        <v>3792</v>
       </c>
       <c r="DN19">
-        <v>0</v>
-      </c>
-      <c r="DO19">
-        <v>0</v>
-      </c>
-      <c r="DP19">
-        <v>4273542</v>
-      </c>
-      <c r="DQ19">
-        <v>3792</v>
-      </c>
-      <c r="DR19">
         <v>4269750</v>
       </c>
     </row>
-    <row r="20" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>41912</v>
       </c>
@@ -33295,19 +33068,19 @@
         <v>5610751</v>
       </c>
       <c r="CL20">
-        <v>0</v>
+        <v>190602788</v>
       </c>
       <c r="CM20" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN20">
-        <v>9</v>
-      </c>
-      <c r="CO20">
-        <v>0</v>
-      </c>
-      <c r="CP20">
-        <v>190602788</v>
+        <v>3</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>3</v>
       </c>
       <c r="CQ20" t="s">
         <v>3</v>
@@ -33321,80 +33094,68 @@
       <c r="CT20" t="s">
         <v>3</v>
       </c>
-      <c r="CU20" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV20" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW20" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX20" t="s">
-        <v>3</v>
+      <c r="CU20">
+        <v>-250291</v>
+      </c>
+      <c r="CV20">
+        <v>13042075</v>
+      </c>
+      <c r="CW20">
+        <v>0</v>
+      </c>
+      <c r="CX20">
+        <v>751523</v>
       </c>
       <c r="CY20">
-        <v>-250291</v>
-      </c>
-      <c r="CZ20">
-        <v>13042075</v>
+        <v>4663643</v>
+      </c>
+      <c r="CZ20" t="s">
+        <v>3</v>
       </c>
       <c r="DA20">
         <v>0</v>
       </c>
       <c r="DB20">
-        <v>751523</v>
+        <v>-1168791</v>
       </c>
       <c r="DC20">
-        <v>4663643</v>
-      </c>
-      <c r="DD20" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE20">
-        <v>0</v>
+        <v>-1112387</v>
+      </c>
+      <c r="DD20">
+        <v>0</v>
+      </c>
+      <c r="DE20" t="s">
+        <v>3</v>
       </c>
       <c r="DF20">
-        <v>-1168791</v>
+        <v>0</v>
       </c>
       <c r="DG20">
-        <v>-1112387</v>
+        <v>6848777</v>
       </c>
       <c r="DH20">
-        <v>0</v>
-      </c>
-      <c r="DI20" t="s">
-        <v>3</v>
+        <v>1232780</v>
+      </c>
+      <c r="DI20">
+        <v>5615997</v>
       </c>
       <c r="DJ20">
         <v>0</v>
       </c>
       <c r="DK20">
-        <v>6848777</v>
+        <v>0</v>
       </c>
       <c r="DL20">
-        <v>1232780</v>
+        <v>5615997</v>
       </c>
       <c r="DM20">
-        <v>5615997</v>
+        <v>5246</v>
       </c>
       <c r="DN20">
-        <v>0</v>
-      </c>
-      <c r="DO20">
-        <v>0</v>
-      </c>
-      <c r="DP20">
-        <v>5615997</v>
-      </c>
-      <c r="DQ20">
-        <v>5246</v>
-      </c>
-      <c r="DR20">
         <v>5610751</v>
       </c>
     </row>
-    <row r="21" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>42004</v>
       </c>
@@ -33663,19 +33424,19 @@
         <v>12461177</v>
       </c>
       <c r="CL21">
-        <v>0</v>
+        <v>275077376</v>
       </c>
       <c r="CM21" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN21">
-        <v>12</v>
-      </c>
-      <c r="CO21">
-        <v>0</v>
-      </c>
-      <c r="CP21">
-        <v>275077376</v>
+        <v>3</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>3</v>
       </c>
       <c r="CQ21" t="s">
         <v>3</v>
@@ -33689,80 +33450,68 @@
       <c r="CT21" t="s">
         <v>3</v>
       </c>
-      <c r="CU21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX21" t="s">
-        <v>3</v>
+      <c r="CU21">
+        <v>-322077</v>
+      </c>
+      <c r="CV21">
+        <v>22712494</v>
+      </c>
+      <c r="CW21">
+        <v>0</v>
+      </c>
+      <c r="CX21">
+        <v>953129</v>
       </c>
       <c r="CY21">
-        <v>-322077</v>
-      </c>
-      <c r="CZ21">
-        <v>22712494</v>
+        <v>6304080</v>
+      </c>
+      <c r="CZ21" t="s">
+        <v>3</v>
       </c>
       <c r="DA21">
         <v>0</v>
       </c>
       <c r="DB21">
-        <v>953129</v>
+        <v>-1446166</v>
       </c>
       <c r="DC21">
-        <v>6304080</v>
-      </c>
-      <c r="DD21" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE21">
-        <v>0</v>
+        <v>-1707254</v>
+      </c>
+      <c r="DD21">
+        <v>0</v>
+      </c>
+      <c r="DE21" t="s">
+        <v>3</v>
       </c>
       <c r="DF21">
-        <v>-1446166</v>
+        <v>0</v>
       </c>
       <c r="DG21">
-        <v>-1707254</v>
+        <v>14208123</v>
       </c>
       <c r="DH21">
-        <v>0</v>
-      </c>
-      <c r="DI21" t="s">
-        <v>3</v>
+        <v>1739236</v>
+      </c>
+      <c r="DI21">
+        <v>12468887</v>
       </c>
       <c r="DJ21">
         <v>0</v>
       </c>
       <c r="DK21">
-        <v>14208123</v>
+        <v>0</v>
       </c>
       <c r="DL21">
-        <v>1739236</v>
+        <v>12468887</v>
       </c>
       <c r="DM21">
-        <v>12468887</v>
+        <v>7710</v>
       </c>
       <c r="DN21">
-        <v>0</v>
-      </c>
-      <c r="DO21">
-        <v>0</v>
-      </c>
-      <c r="DP21">
-        <v>12468887</v>
-      </c>
-      <c r="DQ21">
-        <v>7710</v>
-      </c>
-      <c r="DR21">
         <v>12461177</v>
       </c>
     </row>
-    <row r="22" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>42094</v>
       </c>
@@ -34031,19 +33780,19 @@
         <v>2028568</v>
       </c>
       <c r="CL22">
-        <v>0</v>
+        <v>60774821</v>
       </c>
       <c r="CM22" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN22">
-        <v>3</v>
-      </c>
-      <c r="CO22">
-        <v>0</v>
-      </c>
-      <c r="CP22">
-        <v>60774821</v>
+        <v>3</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>3</v>
       </c>
       <c r="CQ22" t="s">
         <v>3</v>
@@ -34057,80 +33806,68 @@
       <c r="CT22" t="s">
         <v>3</v>
       </c>
-      <c r="CU22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX22" t="s">
-        <v>3</v>
+      <c r="CU22">
+        <v>-67975</v>
+      </c>
+      <c r="CV22">
+        <v>4169695</v>
+      </c>
+      <c r="CW22">
+        <v>0</v>
+      </c>
+      <c r="CX22">
+        <v>204544</v>
       </c>
       <c r="CY22">
-        <v>-67975</v>
-      </c>
-      <c r="CZ22">
-        <v>4169695</v>
+        <v>1563818</v>
+      </c>
+      <c r="CZ22" t="s">
+        <v>3</v>
       </c>
       <c r="DA22">
         <v>0</v>
       </c>
       <c r="DB22">
-        <v>204544</v>
+        <v>-403307</v>
       </c>
       <c r="DC22">
-        <v>1563818</v>
-      </c>
-      <c r="DD22" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE22">
-        <v>0</v>
+        <v>9993</v>
+      </c>
+      <c r="DD22">
+        <v>0</v>
+      </c>
+      <c r="DE22" t="s">
+        <v>3</v>
       </c>
       <c r="DF22">
-        <v>-403307</v>
+        <v>0</v>
       </c>
       <c r="DG22">
-        <v>9993</v>
+        <v>2417107</v>
       </c>
       <c r="DH22">
-        <v>0</v>
-      </c>
-      <c r="DI22" t="s">
-        <v>3</v>
+        <v>386737</v>
+      </c>
+      <c r="DI22">
+        <v>2030370</v>
       </c>
       <c r="DJ22">
         <v>0</v>
       </c>
       <c r="DK22">
-        <v>2417107</v>
+        <v>0</v>
       </c>
       <c r="DL22">
-        <v>386737</v>
+        <v>2030370</v>
       </c>
       <c r="DM22">
-        <v>2030370</v>
+        <v>1802</v>
       </c>
       <c r="DN22">
-        <v>0</v>
-      </c>
-      <c r="DO22">
-        <v>0</v>
-      </c>
-      <c r="DP22">
-        <v>2030370</v>
-      </c>
-      <c r="DQ22">
-        <v>1802</v>
-      </c>
-      <c r="DR22">
         <v>2028568</v>
       </c>
     </row>
-    <row r="23" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>42185</v>
       </c>
@@ -34399,19 +34136,19 @@
         <v>5801922</v>
       </c>
       <c r="CL23">
-        <v>0</v>
+        <v>131775855</v>
       </c>
       <c r="CM23" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN23">
-        <v>6</v>
-      </c>
-      <c r="CO23">
-        <v>0</v>
-      </c>
-      <c r="CP23">
-        <v>131775855</v>
+        <v>3</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP23" t="s">
+        <v>3</v>
       </c>
       <c r="CQ23" t="s">
         <v>3</v>
@@ -34425,80 +34162,68 @@
       <c r="CT23" t="s">
         <v>3</v>
       </c>
-      <c r="CU23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX23" t="s">
-        <v>3</v>
+      <c r="CU23">
+        <v>-394423</v>
+      </c>
+      <c r="CV23">
+        <v>10767892</v>
+      </c>
+      <c r="CW23">
+        <v>0</v>
+      </c>
+      <c r="CX23">
+        <v>439827</v>
       </c>
       <c r="CY23">
-        <v>-394423</v>
-      </c>
-      <c r="CZ23">
-        <v>10767892</v>
+        <v>3070087</v>
+      </c>
+      <c r="CZ23" t="s">
+        <v>3</v>
       </c>
       <c r="DA23">
         <v>0</v>
       </c>
       <c r="DB23">
-        <v>439827</v>
+        <v>-498861</v>
       </c>
       <c r="DC23">
-        <v>3070087</v>
-      </c>
-      <c r="DD23" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE23">
-        <v>0</v>
+        <v>-559012</v>
+      </c>
+      <c r="DD23">
+        <v>0</v>
+      </c>
+      <c r="DE23" t="s">
+        <v>3</v>
       </c>
       <c r="DF23">
-        <v>-498861</v>
+        <v>0</v>
       </c>
       <c r="DG23">
-        <v>-559012</v>
+        <v>7079759</v>
       </c>
       <c r="DH23">
-        <v>0</v>
-      </c>
-      <c r="DI23" t="s">
-        <v>3</v>
+        <v>1274357</v>
+      </c>
+      <c r="DI23">
+        <v>5805402</v>
       </c>
       <c r="DJ23">
         <v>0</v>
       </c>
       <c r="DK23">
-        <v>7079759</v>
+        <v>0</v>
       </c>
       <c r="DL23">
-        <v>1274357</v>
+        <v>5805402</v>
       </c>
       <c r="DM23">
-        <v>5805402</v>
+        <v>3480</v>
       </c>
       <c r="DN23">
-        <v>0</v>
-      </c>
-      <c r="DO23">
-        <v>0</v>
-      </c>
-      <c r="DP23">
-        <v>5805402</v>
-      </c>
-      <c r="DQ23">
-        <v>3480</v>
-      </c>
-      <c r="DR23">
         <v>5801922</v>
       </c>
     </row>
-    <row r="24" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>42277</v>
       </c>
@@ -34767,19 +34492,19 @@
         <v>6065190</v>
       </c>
       <c r="CL24">
-        <v>0</v>
+        <v>194343859</v>
       </c>
       <c r="CM24" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN24">
-        <v>9</v>
-      </c>
-      <c r="CO24">
-        <v>0</v>
-      </c>
-      <c r="CP24">
-        <v>194343859</v>
+        <v>3</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP24" t="s">
+        <v>3</v>
       </c>
       <c r="CQ24" t="s">
         <v>3</v>
@@ -34793,80 +34518,68 @@
       <c r="CT24" t="s">
         <v>3</v>
       </c>
-      <c r="CU24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX24" t="s">
-        <v>3</v>
+      <c r="CU24">
+        <v>-742401</v>
+      </c>
+      <c r="CV24">
+        <v>13565066</v>
+      </c>
+      <c r="CW24">
+        <v>0</v>
+      </c>
+      <c r="CX24">
+        <v>682177</v>
       </c>
       <c r="CY24">
-        <v>-742401</v>
-      </c>
-      <c r="CZ24">
-        <v>13565066</v>
+        <v>4688434</v>
+      </c>
+      <c r="CZ24" t="s">
+        <v>3</v>
       </c>
       <c r="DA24">
         <v>0</v>
       </c>
       <c r="DB24">
-        <v>682177</v>
+        <v>-1087574</v>
       </c>
       <c r="DC24">
-        <v>4688434</v>
-      </c>
-      <c r="DD24" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE24">
-        <v>0</v>
+        <v>-1068538</v>
+      </c>
+      <c r="DD24">
+        <v>0</v>
+      </c>
+      <c r="DE24" t="s">
+        <v>3</v>
       </c>
       <c r="DF24">
-        <v>-1087574</v>
+        <v>0</v>
       </c>
       <c r="DG24">
-        <v>-1068538</v>
+        <v>7402697</v>
       </c>
       <c r="DH24">
-        <v>0</v>
-      </c>
-      <c r="DI24" t="s">
-        <v>3</v>
+        <v>1332485</v>
+      </c>
+      <c r="DI24">
+        <v>6070212</v>
       </c>
       <c r="DJ24">
         <v>0</v>
       </c>
       <c r="DK24">
-        <v>7402697</v>
+        <v>0</v>
       </c>
       <c r="DL24">
-        <v>1332485</v>
+        <v>6070212</v>
       </c>
       <c r="DM24">
-        <v>6070212</v>
+        <v>5022</v>
       </c>
       <c r="DN24">
-        <v>0</v>
-      </c>
-      <c r="DO24">
-        <v>0</v>
-      </c>
-      <c r="DP24">
-        <v>6070212</v>
-      </c>
-      <c r="DQ24">
-        <v>5022</v>
-      </c>
-      <c r="DR24">
         <v>6065190</v>
       </c>
     </row>
-    <row r="25" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>42369</v>
       </c>
@@ -35135,19 +34848,19 @@
         <v>13025020</v>
       </c>
       <c r="CL25">
-        <v>0</v>
+        <v>280349317</v>
       </c>
       <c r="CM25" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN25">
-        <v>12</v>
-      </c>
-      <c r="CO25">
-        <v>0</v>
-      </c>
-      <c r="CP25">
-        <v>280349317</v>
+        <v>3</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP25" t="s">
+        <v>3</v>
       </c>
       <c r="CQ25" t="s">
         <v>3</v>
@@ -35161,80 +34874,68 @@
       <c r="CT25" t="s">
         <v>3</v>
       </c>
-      <c r="CU25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX25" t="s">
-        <v>3</v>
+      <c r="CU25">
+        <v>-1117873</v>
+      </c>
+      <c r="CV25">
+        <v>23578870</v>
+      </c>
+      <c r="CW25">
+        <v>0</v>
+      </c>
+      <c r="CX25">
+        <v>893592</v>
       </c>
       <c r="CY25">
-        <v>-1117873</v>
-      </c>
-      <c r="CZ25">
-        <v>23578870</v>
+        <v>6488089</v>
+      </c>
+      <c r="CZ25" t="s">
+        <v>3</v>
       </c>
       <c r="DA25">
         <v>0</v>
       </c>
       <c r="DB25">
-        <v>893592</v>
+        <v>-1167626</v>
       </c>
       <c r="DC25">
-        <v>6488089</v>
-      </c>
-      <c r="DD25" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE25">
-        <v>0</v>
+        <v>-1663445</v>
+      </c>
+      <c r="DD25">
+        <v>0</v>
+      </c>
+      <c r="DE25" t="s">
+        <v>3</v>
       </c>
       <c r="DF25">
-        <v>-1167626</v>
+        <v>0</v>
       </c>
       <c r="DG25">
-        <v>-1663445</v>
+        <v>15153302</v>
       </c>
       <c r="DH25">
-        <v>0</v>
-      </c>
-      <c r="DI25" t="s">
-        <v>3</v>
+        <v>2121382</v>
+      </c>
+      <c r="DI25">
+        <v>13031920</v>
       </c>
       <c r="DJ25">
         <v>0</v>
       </c>
       <c r="DK25">
-        <v>15153302</v>
+        <v>0</v>
       </c>
       <c r="DL25">
-        <v>2121382</v>
+        <v>13031920</v>
       </c>
       <c r="DM25">
-        <v>13031920</v>
+        <v>6900</v>
       </c>
       <c r="DN25">
-        <v>0</v>
-      </c>
-      <c r="DO25">
-        <v>0</v>
-      </c>
-      <c r="DP25">
-        <v>13031920</v>
-      </c>
-      <c r="DQ25">
-        <v>6900</v>
-      </c>
-      <c r="DR25">
         <v>13025020</v>
       </c>
     </row>
-    <row r="26" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>42460</v>
       </c>
@@ -35503,19 +35204,19 @@
         <v>1369493</v>
       </c>
       <c r="CL26">
-        <v>0</v>
+        <v>64564970</v>
       </c>
       <c r="CM26" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN26">
-        <v>3</v>
-      </c>
-      <c r="CO26">
-        <v>0</v>
-      </c>
-      <c r="CP26">
-        <v>64564970</v>
+        <v>3</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP26" t="s">
+        <v>3</v>
       </c>
       <c r="CQ26" t="s">
         <v>3</v>
@@ -35529,80 +35230,68 @@
       <c r="CT26" t="s">
         <v>3</v>
       </c>
-      <c r="CU26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX26" t="s">
-        <v>3</v>
+      <c r="CU26">
+        <v>-186756</v>
+      </c>
+      <c r="CV26">
+        <v>3541833</v>
+      </c>
+      <c r="CW26">
+        <v>0</v>
+      </c>
+      <c r="CX26">
+        <v>221993</v>
       </c>
       <c r="CY26">
-        <v>-186756</v>
-      </c>
-      <c r="CZ26">
-        <v>3541833</v>
+        <v>1735609</v>
+      </c>
+      <c r="CZ26" t="s">
+        <v>3</v>
       </c>
       <c r="DA26">
         <v>0</v>
       </c>
       <c r="DB26">
-        <v>221993</v>
+        <v>12198</v>
       </c>
       <c r="DC26">
-        <v>1735609</v>
-      </c>
-      <c r="DD26" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE26">
-        <v>0</v>
+        <v>-368528</v>
+      </c>
+      <c r="DD26">
+        <v>0</v>
+      </c>
+      <c r="DE26" t="s">
+        <v>3</v>
       </c>
       <c r="DF26">
-        <v>12198</v>
+        <v>0</v>
       </c>
       <c r="DG26">
-        <v>-368528</v>
+        <v>1671887</v>
       </c>
       <c r="DH26">
-        <v>0</v>
-      </c>
-      <c r="DI26" t="s">
-        <v>3</v>
+        <v>300940</v>
+      </c>
+      <c r="DI26">
+        <v>1370947</v>
       </c>
       <c r="DJ26">
         <v>0</v>
       </c>
       <c r="DK26">
-        <v>1671887</v>
+        <v>0</v>
       </c>
       <c r="DL26">
-        <v>300940</v>
+        <v>1370947</v>
       </c>
       <c r="DM26">
-        <v>1370947</v>
+        <v>1454</v>
       </c>
       <c r="DN26">
-        <v>0</v>
-      </c>
-      <c r="DO26">
-        <v>0</v>
-      </c>
-      <c r="DP26">
-        <v>1370947</v>
-      </c>
-      <c r="DQ26">
-        <v>1454</v>
-      </c>
-      <c r="DR26">
         <v>1369493</v>
       </c>
     </row>
-    <row r="27" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>42551</v>
       </c>
@@ -35871,19 +35560,19 @@
         <v>5240687</v>
       </c>
       <c r="CL27">
-        <v>0</v>
+        <v>139792928</v>
       </c>
       <c r="CM27" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN27">
-        <v>6</v>
-      </c>
-      <c r="CO27">
-        <v>0</v>
-      </c>
-      <c r="CP27">
-        <v>139792928</v>
+        <v>3</v>
+      </c>
+      <c r="CN27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP27" t="s">
+        <v>3</v>
       </c>
       <c r="CQ27" t="s">
         <v>3</v>
@@ -35897,80 +35586,68 @@
       <c r="CT27" t="s">
         <v>3</v>
       </c>
-      <c r="CU27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX27" t="s">
-        <v>3</v>
+      <c r="CU27">
+        <v>-426394</v>
+      </c>
+      <c r="CV27">
+        <v>10245252</v>
+      </c>
+      <c r="CW27">
+        <v>0</v>
+      </c>
+      <c r="CX27">
+        <v>444980</v>
       </c>
       <c r="CY27">
-        <v>-426394</v>
-      </c>
-      <c r="CZ27">
-        <v>10245252</v>
+        <v>3496639</v>
+      </c>
+      <c r="CZ27" t="s">
+        <v>3</v>
       </c>
       <c r="DA27">
         <v>0</v>
       </c>
       <c r="DB27">
-        <v>444980</v>
+        <v>-51671</v>
       </c>
       <c r="DC27">
-        <v>3496639</v>
-      </c>
-      <c r="DD27" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE27">
-        <v>0</v>
+        <v>-747418</v>
+      </c>
+      <c r="DD27">
+        <v>0</v>
+      </c>
+      <c r="DE27" t="s">
+        <v>3</v>
       </c>
       <c r="DF27">
-        <v>-51671</v>
+        <v>0</v>
       </c>
       <c r="DG27">
-        <v>-747418</v>
+        <v>6394504</v>
       </c>
       <c r="DH27">
-        <v>0</v>
-      </c>
-      <c r="DI27" t="s">
-        <v>3</v>
+        <v>1151011</v>
+      </c>
+      <c r="DI27">
+        <v>5243493</v>
       </c>
       <c r="DJ27">
         <v>0</v>
       </c>
       <c r="DK27">
-        <v>6394504</v>
+        <v>0</v>
       </c>
       <c r="DL27">
-        <v>1151011</v>
+        <v>5243493</v>
       </c>
       <c r="DM27">
-        <v>5243493</v>
+        <v>2806</v>
       </c>
       <c r="DN27">
-        <v>0</v>
-      </c>
-      <c r="DO27">
-        <v>0</v>
-      </c>
-      <c r="DP27">
-        <v>5243493</v>
-      </c>
-      <c r="DQ27">
-        <v>2806</v>
-      </c>
-      <c r="DR27">
         <v>5240687</v>
       </c>
     </row>
-    <row r="28" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>42643</v>
       </c>
@@ -36239,19 +35916,19 @@
         <v>7516584</v>
       </c>
       <c r="CL28">
-        <v>0</v>
+        <v>209721918</v>
       </c>
       <c r="CM28" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN28">
-        <v>9</v>
-      </c>
-      <c r="CO28">
-        <v>0</v>
-      </c>
-      <c r="CP28">
-        <v>209721918</v>
+        <v>3</v>
+      </c>
+      <c r="CN28" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO28" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP28" t="s">
+        <v>3</v>
       </c>
       <c r="CQ28" t="s">
         <v>3</v>
@@ -36265,80 +35942,68 @@
       <c r="CT28" t="s">
         <v>3</v>
       </c>
-      <c r="CU28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX28" t="s">
-        <v>3</v>
+      <c r="CU28">
+        <v>-783142</v>
+      </c>
+      <c r="CV28">
+        <v>14750521</v>
+      </c>
+      <c r="CW28">
+        <v>0</v>
+      </c>
+      <c r="CX28">
+        <v>646438</v>
       </c>
       <c r="CY28">
-        <v>-783142</v>
-      </c>
-      <c r="CZ28">
-        <v>14750521</v>
+        <v>5223274</v>
+      </c>
+      <c r="CZ28" t="s">
+        <v>3</v>
       </c>
       <c r="DA28">
         <v>0</v>
       </c>
       <c r="DB28">
-        <v>646438</v>
+        <v>51316</v>
       </c>
       <c r="DC28">
-        <v>5223274</v>
-      </c>
-      <c r="DD28" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE28">
-        <v>0</v>
+        <v>-1054360</v>
+      </c>
+      <c r="DD28">
+        <v>0</v>
+      </c>
+      <c r="DE28" t="s">
+        <v>3</v>
       </c>
       <c r="DF28">
-        <v>51316</v>
+        <v>0</v>
       </c>
       <c r="DG28">
-        <v>-1054360</v>
+        <v>9170641</v>
       </c>
       <c r="DH28">
-        <v>0</v>
-      </c>
-      <c r="DI28" t="s">
-        <v>3</v>
+        <v>1650715</v>
+      </c>
+      <c r="DI28">
+        <v>7519926</v>
       </c>
       <c r="DJ28">
         <v>0</v>
       </c>
       <c r="DK28">
-        <v>9170641</v>
+        <v>0</v>
       </c>
       <c r="DL28">
-        <v>1650715</v>
+        <v>7519926</v>
       </c>
       <c r="DM28">
-        <v>7519926</v>
+        <v>3342</v>
       </c>
       <c r="DN28">
-        <v>0</v>
-      </c>
-      <c r="DO28">
-        <v>0</v>
-      </c>
-      <c r="DP28">
-        <v>7519926</v>
-      </c>
-      <c r="DQ28">
-        <v>3342</v>
-      </c>
-      <c r="DR28">
         <v>7516584</v>
       </c>
     </row>
-    <row r="29" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>42735</v>
       </c>
@@ -36607,19 +36272,19 @@
         <v>15835427</v>
       </c>
       <c r="CL29">
-        <v>0</v>
+        <v>302489675</v>
       </c>
       <c r="CM29" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN29">
-        <v>12</v>
-      </c>
-      <c r="CO29">
-        <v>0</v>
-      </c>
-      <c r="CP29">
-        <v>302489675</v>
+        <v>3</v>
+      </c>
+      <c r="CN29" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO29" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP29" t="s">
+        <v>3</v>
       </c>
       <c r="CQ29" t="s">
         <v>3</v>
@@ -36633,80 +36298,68 @@
       <c r="CT29" t="s">
         <v>3</v>
       </c>
-      <c r="CU29" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV29" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW29" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX29" t="s">
-        <v>3</v>
+      <c r="CU29">
+        <v>-800448</v>
+      </c>
+      <c r="CV29">
+        <v>25717209</v>
+      </c>
+      <c r="CW29">
+        <v>0</v>
+      </c>
+      <c r="CX29">
+        <v>819565</v>
       </c>
       <c r="CY29">
-        <v>-800448</v>
-      </c>
-      <c r="CZ29">
-        <v>25717209</v>
+        <v>6835964</v>
+      </c>
+      <c r="CZ29" t="s">
+        <v>3</v>
       </c>
       <c r="DA29">
         <v>0</v>
       </c>
       <c r="DB29">
-        <v>819565</v>
+        <v>-23756</v>
       </c>
       <c r="DC29">
-        <v>6835964</v>
-      </c>
-      <c r="DD29" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE29">
-        <v>0</v>
+        <v>-1259006</v>
+      </c>
+      <c r="DD29">
+        <v>0</v>
+      </c>
+      <c r="DE29" t="s">
+        <v>3</v>
       </c>
       <c r="DF29">
-        <v>-23756</v>
+        <v>0</v>
       </c>
       <c r="DG29">
-        <v>-1259006</v>
+        <v>18418048</v>
       </c>
       <c r="DH29">
-        <v>0</v>
-      </c>
-      <c r="DI29" t="s">
-        <v>3</v>
+        <v>2578527</v>
+      </c>
+      <c r="DI29">
+        <v>15839521</v>
       </c>
       <c r="DJ29">
         <v>0</v>
       </c>
       <c r="DK29">
-        <v>18418048</v>
+        <v>0</v>
       </c>
       <c r="DL29">
-        <v>2578527</v>
+        <v>15839521</v>
       </c>
       <c r="DM29">
-        <v>15839521</v>
+        <v>4094</v>
       </c>
       <c r="DN29">
-        <v>0</v>
-      </c>
-      <c r="DO29">
-        <v>0</v>
-      </c>
-      <c r="DP29">
-        <v>15839521</v>
-      </c>
-      <c r="DQ29">
-        <v>4094</v>
-      </c>
-      <c r="DR29">
         <v>15835427</v>
       </c>
     </row>
-    <row r="30" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>42825</v>
       </c>
@@ -36975,19 +36628,19 @@
         <v>2484100</v>
       </c>
       <c r="CL30">
-        <v>0</v>
+        <v>71932907</v>
       </c>
       <c r="CM30" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN30">
-        <v>3</v>
-      </c>
-      <c r="CO30">
-        <v>0</v>
-      </c>
-      <c r="CP30">
-        <v>71932907</v>
+        <v>3</v>
+      </c>
+      <c r="CN30" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO30" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP30" t="s">
+        <v>3</v>
       </c>
       <c r="CQ30" t="s">
         <v>3</v>
@@ -37001,80 +36654,68 @@
       <c r="CT30" t="s">
         <v>3</v>
       </c>
-      <c r="CU30" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV30" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW30" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX30" t="s">
-        <v>3</v>
+      <c r="CU30">
+        <v>-512639</v>
+      </c>
+      <c r="CV30">
+        <v>4605726</v>
+      </c>
+      <c r="CW30">
+        <v>0</v>
+      </c>
+      <c r="CX30">
+        <v>165878</v>
       </c>
       <c r="CY30">
-        <v>-512639</v>
-      </c>
-      <c r="CZ30">
-        <v>4605726</v>
+        <v>1555765</v>
+      </c>
+      <c r="CZ30" t="s">
+        <v>3</v>
       </c>
       <c r="DA30">
         <v>0</v>
       </c>
       <c r="DB30">
-        <v>165878</v>
+        <v>28719</v>
       </c>
       <c r="DC30">
-        <v>1555765</v>
-      </c>
-      <c r="DD30" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE30">
-        <v>0</v>
+        <v>-218073</v>
+      </c>
+      <c r="DD30">
+        <v>0</v>
+      </c>
+      <c r="DE30" t="s">
+        <v>3</v>
       </c>
       <c r="DF30">
-        <v>28719</v>
+        <v>0</v>
       </c>
       <c r="DG30">
-        <v>-218073</v>
+        <v>3026485</v>
       </c>
       <c r="DH30">
-        <v>0</v>
-      </c>
-      <c r="DI30" t="s">
-        <v>3</v>
+        <v>541741</v>
+      </c>
+      <c r="DI30">
+        <v>2484744</v>
       </c>
       <c r="DJ30">
         <v>0</v>
       </c>
       <c r="DK30">
-        <v>3026485</v>
+        <v>0</v>
       </c>
       <c r="DL30">
-        <v>541741</v>
+        <v>2484744</v>
       </c>
       <c r="DM30">
-        <v>2484744</v>
+        <v>644</v>
       </c>
       <c r="DN30">
-        <v>0</v>
-      </c>
-      <c r="DO30">
-        <v>0</v>
-      </c>
-      <c r="DP30">
-        <v>2484744</v>
-      </c>
-      <c r="DQ30">
-        <v>644</v>
-      </c>
-      <c r="DR30">
         <v>2484100</v>
       </c>
     </row>
-    <row r="31" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>42916</v>
       </c>
@@ -37343,19 +36984,19 @@
         <v>5664514</v>
       </c>
       <c r="CL31">
-        <v>0</v>
+        <v>149820194</v>
       </c>
       <c r="CM31" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN31">
-        <v>6</v>
-      </c>
-      <c r="CO31">
-        <v>0</v>
-      </c>
-      <c r="CP31">
-        <v>149820194</v>
+        <v>3</v>
+      </c>
+      <c r="CN31" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO31" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP31" t="s">
+        <v>3</v>
       </c>
       <c r="CQ31" t="s">
         <v>3</v>
@@ -37369,80 +37010,68 @@
       <c r="CT31" t="s">
         <v>3</v>
       </c>
-      <c r="CU31" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV31" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW31" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX31" t="s">
-        <v>3</v>
+      <c r="CU31">
+        <v>-638151</v>
+      </c>
+      <c r="CV31">
+        <v>10207274</v>
+      </c>
+      <c r="CW31">
+        <v>0</v>
+      </c>
+      <c r="CX31">
+        <v>325247</v>
       </c>
       <c r="CY31">
-        <v>-638151</v>
-      </c>
-      <c r="CZ31">
-        <v>10207274</v>
+        <v>3114435</v>
+      </c>
+      <c r="CZ31" t="s">
+        <v>3</v>
       </c>
       <c r="DA31">
         <v>0</v>
       </c>
       <c r="DB31">
-        <v>325247</v>
+        <v>51377</v>
       </c>
       <c r="DC31">
-        <v>3114435</v>
-      </c>
-      <c r="DD31" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE31">
-        <v>0</v>
+        <v>-568451</v>
+      </c>
+      <c r="DD31">
+        <v>0</v>
+      </c>
+      <c r="DE31" t="s">
+        <v>3</v>
       </c>
       <c r="DF31">
-        <v>51377</v>
+        <v>0</v>
       </c>
       <c r="DG31">
-        <v>-568451</v>
+        <v>6901012</v>
       </c>
       <c r="DH31">
-        <v>0</v>
-      </c>
-      <c r="DI31" t="s">
-        <v>3</v>
+        <v>1235284</v>
+      </c>
+      <c r="DI31">
+        <v>5665728</v>
       </c>
       <c r="DJ31">
         <v>0</v>
       </c>
       <c r="DK31">
-        <v>6901012</v>
+        <v>0</v>
       </c>
       <c r="DL31">
-        <v>1235284</v>
+        <v>5665728</v>
       </c>
       <c r="DM31">
-        <v>5665728</v>
+        <v>1214</v>
       </c>
       <c r="DN31">
-        <v>0</v>
-      </c>
-      <c r="DO31">
-        <v>0</v>
-      </c>
-      <c r="DP31">
-        <v>5665728</v>
-      </c>
-      <c r="DQ31">
-        <v>1214</v>
-      </c>
-      <c r="DR31">
         <v>5664514</v>
       </c>
     </row>
-    <row r="32" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>43008</v>
       </c>
@@ -37711,19 +37340,19 @@
         <v>7599338</v>
       </c>
       <c r="CL32">
-        <v>0</v>
+        <v>221655665</v>
       </c>
       <c r="CM32" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN32">
-        <v>9</v>
-      </c>
-      <c r="CO32">
-        <v>0</v>
-      </c>
-      <c r="CP32">
-        <v>221655665</v>
+        <v>3</v>
+      </c>
+      <c r="CN32" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO32" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP32" t="s">
+        <v>3</v>
       </c>
       <c r="CQ32" t="s">
         <v>3</v>
@@ -37737,80 +37366,68 @@
       <c r="CT32" t="s">
         <v>3</v>
       </c>
-      <c r="CU32" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV32" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW32" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX32" t="s">
-        <v>3</v>
+      <c r="CU32">
+        <v>-326239</v>
+      </c>
+      <c r="CV32">
+        <v>13941442</v>
+      </c>
+      <c r="CW32">
+        <v>0</v>
+      </c>
+      <c r="CX32">
+        <v>465559</v>
       </c>
       <c r="CY32">
-        <v>-326239</v>
-      </c>
-      <c r="CZ32">
-        <v>13941442</v>
+        <v>4601151</v>
+      </c>
+      <c r="CZ32" t="s">
+        <v>3</v>
       </c>
       <c r="DA32">
         <v>0</v>
       </c>
       <c r="DB32">
-        <v>465559</v>
+        <v>-84</v>
       </c>
       <c r="DC32">
-        <v>4601151</v>
-      </c>
-      <c r="DD32" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE32">
-        <v>0</v>
+        <v>-547315</v>
+      </c>
+      <c r="DD32">
+        <v>0</v>
+      </c>
+      <c r="DE32" t="s">
+        <v>3</v>
       </c>
       <c r="DF32">
-        <v>-84</v>
+        <v>0</v>
       </c>
       <c r="DG32">
-        <v>-547315</v>
+        <v>9258451</v>
       </c>
       <c r="DH32">
-        <v>0</v>
-      </c>
-      <c r="DI32" t="s">
-        <v>3</v>
+        <v>1657263</v>
+      </c>
+      <c r="DI32">
+        <v>7601188</v>
       </c>
       <c r="DJ32">
         <v>0</v>
       </c>
       <c r="DK32">
-        <v>9258451</v>
+        <v>0</v>
       </c>
       <c r="DL32">
-        <v>1657263</v>
+        <v>7601188</v>
       </c>
       <c r="DM32">
-        <v>7601188</v>
+        <v>1850</v>
       </c>
       <c r="DN32">
-        <v>0</v>
-      </c>
-      <c r="DO32">
-        <v>0</v>
-      </c>
-      <c r="DP32">
-        <v>7601188</v>
-      </c>
-      <c r="DQ32">
-        <v>1850</v>
-      </c>
-      <c r="DR32">
         <v>7599338</v>
       </c>
     </row>
-    <row r="33" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>43100</v>
       </c>
@@ -38079,19 +37696,19 @@
         <v>13378178</v>
       </c>
       <c r="CL33">
-        <v>0</v>
+        <v>311870350</v>
       </c>
       <c r="CM33" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN33">
-        <v>12</v>
-      </c>
-      <c r="CO33">
-        <v>0</v>
-      </c>
-      <c r="CP33">
-        <v>311870350</v>
+        <v>3</v>
+      </c>
+      <c r="CN33" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO33" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP33" t="s">
+        <v>3</v>
       </c>
       <c r="CQ33" t="s">
         <v>3</v>
@@ -38105,80 +37722,68 @@
       <c r="CT33" t="s">
         <v>3</v>
       </c>
-      <c r="CU33" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV33" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW33" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX33" t="s">
-        <v>3</v>
+      <c r="CU33">
+        <v>-136299</v>
+      </c>
+      <c r="CV33">
+        <v>22670833</v>
+      </c>
+      <c r="CW33">
+        <v>0</v>
+      </c>
+      <c r="CX33">
+        <v>640601</v>
       </c>
       <c r="CY33">
-        <v>-136299</v>
-      </c>
-      <c r="CZ33">
-        <v>22670833</v>
+        <v>6138197</v>
+      </c>
+      <c r="CZ33" t="s">
+        <v>3</v>
       </c>
       <c r="DA33">
         <v>0</v>
       </c>
       <c r="DB33">
-        <v>640601</v>
+        <v>-49299</v>
       </c>
       <c r="DC33">
-        <v>6138197</v>
-      </c>
-      <c r="DD33" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE33">
-        <v>0</v>
+        <v>-767920</v>
+      </c>
+      <c r="DD33">
+        <v>0</v>
+      </c>
+      <c r="DE33" t="s">
+        <v>3</v>
       </c>
       <c r="DF33">
-        <v>-49299</v>
+        <v>0</v>
       </c>
       <c r="DG33">
-        <v>-767920</v>
+        <v>16356018</v>
       </c>
       <c r="DH33">
-        <v>0</v>
-      </c>
-      <c r="DI33" t="s">
-        <v>3</v>
+        <v>2975372</v>
+      </c>
+      <c r="DI33">
+        <v>13380646</v>
       </c>
       <c r="DJ33">
         <v>0</v>
       </c>
       <c r="DK33">
-        <v>16356018</v>
+        <v>0</v>
       </c>
       <c r="DL33">
-        <v>2975372</v>
+        <v>13380646</v>
       </c>
       <c r="DM33">
-        <v>13380646</v>
+        <v>2468</v>
       </c>
       <c r="DN33">
-        <v>0</v>
-      </c>
-      <c r="DO33">
-        <v>0</v>
-      </c>
-      <c r="DP33">
-        <v>13380646</v>
-      </c>
-      <c r="DQ33">
-        <v>2468</v>
-      </c>
-      <c r="DR33">
         <v>13378178</v>
       </c>
     </row>
-    <row r="34" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>43190</v>
       </c>
@@ -38447,19 +38052,19 @@
         <v>1683892</v>
       </c>
       <c r="CL34">
-        <v>0</v>
+        <v>72016850</v>
       </c>
       <c r="CM34" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN34">
-        <v>3</v>
-      </c>
-      <c r="CO34">
-        <v>0</v>
-      </c>
-      <c r="CP34">
-        <v>72016850</v>
+        <v>3</v>
+      </c>
+      <c r="CN34" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO34" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP34" t="s">
+        <v>3</v>
       </c>
       <c r="CQ34" t="s">
         <v>3</v>
@@ -38473,80 +38078,68 @@
       <c r="CT34" t="s">
         <v>3</v>
       </c>
-      <c r="CU34" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV34" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW34" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX34" t="s">
-        <v>3</v>
+      <c r="CU34">
+        <v>-103730</v>
+      </c>
+      <c r="CV34">
+        <v>3816711</v>
+      </c>
+      <c r="CW34">
+        <v>0</v>
+      </c>
+      <c r="CX34">
+        <v>233583</v>
       </c>
       <c r="CY34">
-        <v>-103730</v>
-      </c>
-      <c r="CZ34">
-        <v>3816711</v>
+        <v>1792762</v>
+      </c>
+      <c r="CZ34" t="s">
+        <v>3</v>
       </c>
       <c r="DA34">
         <v>0</v>
       </c>
       <c r="DB34">
-        <v>233583</v>
+        <v>88497</v>
       </c>
       <c r="DC34">
-        <v>1792762</v>
-      </c>
-      <c r="DD34" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE34">
-        <v>0</v>
+        <v>-291757</v>
+      </c>
+      <c r="DD34">
+        <v>0</v>
+      </c>
+      <c r="DE34" t="s">
+        <v>3</v>
       </c>
       <c r="DF34">
-        <v>88497</v>
+        <v>0</v>
       </c>
       <c r="DG34">
-        <v>-291757</v>
+        <v>2054272</v>
       </c>
       <c r="DH34">
-        <v>0</v>
-      </c>
-      <c r="DI34" t="s">
-        <v>3</v>
+        <v>369768</v>
+      </c>
+      <c r="DI34">
+        <v>1684504</v>
       </c>
       <c r="DJ34">
         <v>0</v>
       </c>
       <c r="DK34">
-        <v>2054272</v>
+        <v>0</v>
       </c>
       <c r="DL34">
-        <v>369768</v>
+        <v>1684504</v>
       </c>
       <c r="DM34">
-        <v>1684504</v>
+        <v>612</v>
       </c>
       <c r="DN34">
-        <v>0</v>
-      </c>
-      <c r="DO34">
-        <v>0</v>
-      </c>
-      <c r="DP34">
-        <v>1684504</v>
-      </c>
-      <c r="DQ34">
-        <v>612</v>
-      </c>
-      <c r="DR34">
         <v>1683892</v>
       </c>
     </row>
-    <row r="35" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>43281</v>
       </c>
@@ -38815,19 +38408,19 @@
         <v>3889832</v>
       </c>
       <c r="CL35">
-        <v>0</v>
+        <v>149699033</v>
       </c>
       <c r="CM35" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN35">
-        <v>6</v>
-      </c>
-      <c r="CO35">
-        <v>0</v>
-      </c>
-      <c r="CP35">
-        <v>149699033</v>
+        <v>3</v>
+      </c>
+      <c r="CN35" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO35" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP35" t="s">
+        <v>3</v>
       </c>
       <c r="CQ35" t="s">
         <v>3</v>
@@ -38841,80 +38434,68 @@
       <c r="CT35" t="s">
         <v>3</v>
       </c>
-      <c r="CU35" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV35" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW35" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX35" t="s">
-        <v>3</v>
+      <c r="CU35">
+        <v>-227264</v>
+      </c>
+      <c r="CV35">
+        <v>8496268</v>
+      </c>
+      <c r="CW35">
+        <v>0</v>
+      </c>
+      <c r="CX35">
+        <v>453258</v>
       </c>
       <c r="CY35">
-        <v>-227264</v>
-      </c>
-      <c r="CZ35">
-        <v>8496268</v>
+        <v>3609146</v>
+      </c>
+      <c r="CZ35" t="s">
+        <v>3</v>
       </c>
       <c r="DA35">
         <v>0</v>
       </c>
       <c r="DB35">
-        <v>453258</v>
+        <v>39677</v>
       </c>
       <c r="DC35">
-        <v>3609146</v>
-      </c>
-      <c r="DD35" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE35">
-        <v>0</v>
+        <v>-635120</v>
+      </c>
+      <c r="DD35">
+        <v>0</v>
+      </c>
+      <c r="DE35" t="s">
+        <v>3</v>
       </c>
       <c r="DF35">
-        <v>39677</v>
+        <v>0</v>
       </c>
       <c r="DG35">
-        <v>-635120</v>
+        <v>4744937</v>
       </c>
       <c r="DH35">
-        <v>0</v>
-      </c>
-      <c r="DI35" t="s">
-        <v>3</v>
+        <v>854087</v>
+      </c>
+      <c r="DI35">
+        <v>3890850</v>
       </c>
       <c r="DJ35">
         <v>0</v>
       </c>
       <c r="DK35">
-        <v>4744937</v>
+        <v>0</v>
       </c>
       <c r="DL35">
-        <v>854087</v>
+        <v>3890850</v>
       </c>
       <c r="DM35">
-        <v>3890850</v>
+        <v>1018</v>
       </c>
       <c r="DN35">
-        <v>0</v>
-      </c>
-      <c r="DO35">
-        <v>0</v>
-      </c>
-      <c r="DP35">
-        <v>3890850</v>
-      </c>
-      <c r="DQ35">
-        <v>1018</v>
-      </c>
-      <c r="DR35">
         <v>3889832</v>
       </c>
     </row>
-    <row r="36" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>43373</v>
       </c>
@@ -39183,19 +38764,19 @@
         <v>4309264</v>
       </c>
       <c r="CL36">
-        <v>0</v>
+        <v>220842594</v>
       </c>
       <c r="CM36" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN36">
-        <v>9</v>
-      </c>
-      <c r="CO36">
-        <v>0</v>
-      </c>
-      <c r="CP36">
-        <v>220842594</v>
+        <v>3</v>
+      </c>
+      <c r="CN36" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO36" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP36" t="s">
+        <v>3</v>
       </c>
       <c r="CQ36" t="s">
         <v>3</v>
@@ -39209,32 +38790,32 @@
       <c r="CT36" t="s">
         <v>3</v>
       </c>
-      <c r="CU36" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV36" t="s">
-        <v>3</v>
+      <c r="CU36">
+        <v>-307026</v>
+      </c>
+      <c r="CV36">
+        <v>40140448</v>
       </c>
       <c r="CW36" t="s">
         <v>3</v>
       </c>
-      <c r="CX36" t="s">
-        <v>3</v>
+      <c r="CX36">
+        <v>726604</v>
       </c>
       <c r="CY36">
-        <v>-307026</v>
-      </c>
-      <c r="CZ36">
-        <v>40140448</v>
+        <v>5417774</v>
+      </c>
+      <c r="CZ36" t="s">
+        <v>3</v>
       </c>
       <c r="DA36" t="s">
         <v>3</v>
       </c>
       <c r="DB36">
-        <v>726604</v>
+        <v>-242658</v>
       </c>
       <c r="DC36">
-        <v>5417774</v>
+        <v>-1199653</v>
       </c>
       <c r="DD36" t="s">
         <v>3</v>
@@ -39242,47 +38823,35 @@
       <c r="DE36" t="s">
         <v>3</v>
       </c>
-      <c r="DF36">
-        <v>-242658</v>
+      <c r="DF36" t="s">
+        <v>3</v>
       </c>
       <c r="DG36">
-        <v>-1199653</v>
-      </c>
-      <c r="DH36" t="s">
-        <v>3</v>
-      </c>
-      <c r="DI36" t="s">
-        <v>3</v>
-      </c>
-      <c r="DJ36" t="s">
-        <v>3</v>
+        <v>5257203</v>
+      </c>
+      <c r="DH36">
+        <v>946297</v>
+      </c>
+      <c r="DI36">
+        <v>4310906</v>
+      </c>
+      <c r="DJ36">
+        <v>0</v>
       </c>
       <c r="DK36">
-        <v>5257203</v>
+        <v>0</v>
       </c>
       <c r="DL36">
-        <v>946297</v>
+        <v>4310906</v>
       </c>
       <c r="DM36">
-        <v>4310906</v>
+        <v>1642</v>
       </c>
       <c r="DN36">
-        <v>0</v>
-      </c>
-      <c r="DO36">
-        <v>0</v>
-      </c>
-      <c r="DP36">
-        <v>4310906</v>
-      </c>
-      <c r="DQ36">
-        <v>1642</v>
-      </c>
-      <c r="DR36">
         <v>4309264</v>
       </c>
     </row>
-    <row r="37" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>43465</v>
       </c>
@@ -39551,19 +39120,19 @@
         <v>8300019</v>
       </c>
       <c r="CL37">
-        <v>0</v>
+        <v>316708928</v>
       </c>
       <c r="CM37" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN37">
-        <v>12</v>
-      </c>
-      <c r="CO37">
-        <v>0</v>
-      </c>
-      <c r="CP37">
-        <v>316708928</v>
+        <v>3</v>
+      </c>
+      <c r="CN37" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO37" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP37" t="s">
+        <v>3</v>
       </c>
       <c r="CQ37" t="s">
         <v>3</v>
@@ -39577,80 +39146,68 @@
       <c r="CT37" t="s">
         <v>3</v>
       </c>
-      <c r="CU37" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV37" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW37" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX37" t="s">
-        <v>3</v>
+      <c r="CU37">
+        <v>-811231</v>
+      </c>
+      <c r="CV37">
+        <v>18495219</v>
+      </c>
+      <c r="CW37">
+        <v>0</v>
+      </c>
+      <c r="CX37">
+        <v>910226</v>
       </c>
       <c r="CY37">
-        <v>-811231</v>
-      </c>
-      <c r="CZ37">
-        <v>18495219</v>
+        <v>7296447</v>
+      </c>
+      <c r="CZ37" t="s">
+        <v>3</v>
       </c>
       <c r="DA37">
         <v>0</v>
       </c>
       <c r="DB37">
-        <v>910226</v>
+        <v>-217237</v>
       </c>
       <c r="DC37">
-        <v>7296447</v>
-      </c>
-      <c r="DD37" t="s">
-        <v>3</v>
-      </c>
-      <c r="DE37">
-        <v>0</v>
+        <v>-1766765</v>
+      </c>
+      <c r="DD37">
+        <v>0</v>
+      </c>
+      <c r="DE37" t="s">
+        <v>3</v>
       </c>
       <c r="DF37">
-        <v>-217237</v>
+        <v>0</v>
       </c>
       <c r="DG37">
-        <v>-1766765</v>
+        <v>10124996</v>
       </c>
       <c r="DH37">
-        <v>0</v>
-      </c>
-      <c r="DI37" t="s">
-        <v>3</v>
+        <v>1822499</v>
+      </c>
+      <c r="DI37">
+        <v>8302497</v>
       </c>
       <c r="DJ37">
         <v>0</v>
       </c>
       <c r="DK37">
-        <v>10124996</v>
+        <v>0</v>
       </c>
       <c r="DL37">
-        <v>1822499</v>
+        <v>8302497</v>
       </c>
       <c r="DM37">
-        <v>8302497</v>
+        <v>2478</v>
       </c>
       <c r="DN37">
-        <v>0</v>
-      </c>
-      <c r="DO37">
-        <v>0</v>
-      </c>
-      <c r="DP37">
-        <v>8302497</v>
-      </c>
-      <c r="DQ37">
-        <v>2478</v>
-      </c>
-      <c r="DR37">
         <v>8300019</v>
       </c>
     </row>
-    <row r="38" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>43555</v>
       </c>
@@ -39919,19 +39476,19 @@
         <v>1528516</v>
       </c>
       <c r="CL38">
-        <v>0</v>
+        <v>75812845</v>
       </c>
       <c r="CM38" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN38">
-        <v>3</v>
-      </c>
-      <c r="CO38">
-        <v>0</v>
-      </c>
-      <c r="CP38">
-        <v>75812845</v>
+        <v>3</v>
+      </c>
+      <c r="CN38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO38" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP38" t="s">
+        <v>3</v>
       </c>
       <c r="CQ38" t="s">
         <v>3</v>
@@ -39945,32 +39502,32 @@
       <c r="CT38" t="s">
         <v>3</v>
       </c>
-      <c r="CU38" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV38" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW38" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX38" t="s">
-        <v>3</v>
+      <c r="CU38">
+        <v>-75629</v>
+      </c>
+      <c r="CV38">
+        <v>4291812</v>
+      </c>
+      <c r="CW38">
+        <v>0</v>
+      </c>
+      <c r="CX38">
+        <v>107098</v>
       </c>
       <c r="CY38">
-        <v>-75629</v>
+        <v>2709238</v>
       </c>
       <c r="CZ38">
-        <v>4291812</v>
+        <v>0</v>
       </c>
       <c r="DA38">
         <v>0</v>
       </c>
       <c r="DB38">
-        <v>107098</v>
+        <v>202079</v>
       </c>
       <c r="DC38">
-        <v>2709238</v>
+        <v>-26721</v>
       </c>
       <c r="DD38">
         <v>0</v>
@@ -39979,46 +39536,34 @@
         <v>0</v>
       </c>
       <c r="DF38">
-        <v>202079</v>
+        <v>0</v>
       </c>
       <c r="DG38">
-        <v>-26721</v>
+        <v>1865030</v>
       </c>
       <c r="DH38">
-        <v>0</v>
+        <v>335706</v>
       </c>
       <c r="DI38">
-        <v>0</v>
+        <v>1529324</v>
       </c>
       <c r="DJ38">
         <v>0</v>
       </c>
       <c r="DK38">
-        <v>1865030</v>
+        <v>0</v>
       </c>
       <c r="DL38">
-        <v>335706</v>
+        <v>1529324</v>
       </c>
       <c r="DM38">
-        <v>1529324</v>
+        <v>808</v>
       </c>
       <c r="DN38">
-        <v>0</v>
-      </c>
-      <c r="DO38">
-        <v>0</v>
-      </c>
-      <c r="DP38">
-        <v>1529324</v>
-      </c>
-      <c r="DQ38">
-        <v>808</v>
-      </c>
-      <c r="DR38">
         <v>1528516</v>
       </c>
     </row>
-    <row r="39" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>43646</v>
       </c>
@@ -40287,19 +39832,19 @@
         <v>2190680</v>
       </c>
       <c r="CL39">
-        <v>0</v>
+        <v>158275834</v>
       </c>
       <c r="CM39" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN39">
-        <v>6</v>
-      </c>
-      <c r="CO39">
-        <v>0</v>
-      </c>
-      <c r="CP39">
-        <v>158275834</v>
+        <v>3</v>
+      </c>
+      <c r="CN39" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO39" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP39" t="s">
+        <v>3</v>
       </c>
       <c r="CQ39" t="s">
         <v>3</v>
@@ -40313,32 +39858,32 @@
       <c r="CT39" t="s">
         <v>3</v>
       </c>
-      <c r="CU39" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV39" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW39" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX39" t="s">
-        <v>3</v>
+      <c r="CU39">
+        <v>-221380</v>
+      </c>
+      <c r="CV39">
+        <v>9467252</v>
+      </c>
+      <c r="CW39">
+        <v>0</v>
+      </c>
+      <c r="CX39">
+        <v>400955</v>
       </c>
       <c r="CY39">
-        <v>-221380</v>
+        <v>5712977</v>
       </c>
       <c r="CZ39">
-        <v>9467252</v>
+        <v>0</v>
       </c>
       <c r="DA39">
         <v>0</v>
       </c>
       <c r="DB39">
-        <v>400955</v>
+        <v>-15257</v>
       </c>
       <c r="DC39">
-        <v>5712977</v>
+        <v>-1466532</v>
       </c>
       <c r="DD39">
         <v>0</v>
@@ -40347,46 +39892,34 @@
         <v>0</v>
       </c>
       <c r="DF39">
-        <v>-15257</v>
+        <v>0</v>
       </c>
       <c r="DG39">
-        <v>-1466532</v>
+        <v>2673441</v>
       </c>
       <c r="DH39">
-        <v>0</v>
+        <v>481219</v>
       </c>
       <c r="DI39">
-        <v>0</v>
+        <v>2192222</v>
       </c>
       <c r="DJ39">
         <v>0</v>
       </c>
       <c r="DK39">
-        <v>2673441</v>
+        <v>0</v>
       </c>
       <c r="DL39">
-        <v>481219</v>
+        <v>2192222</v>
       </c>
       <c r="DM39">
-        <v>2192222</v>
+        <v>1542</v>
       </c>
       <c r="DN39">
-        <v>0</v>
-      </c>
-      <c r="DO39">
-        <v>0</v>
-      </c>
-      <c r="DP39">
-        <v>2192222</v>
-      </c>
-      <c r="DQ39">
-        <v>1542</v>
-      </c>
-      <c r="DR39">
         <v>2190680</v>
       </c>
     </row>
-    <row r="40" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>43738</v>
       </c>
@@ -40655,19 +40188,19 @@
         <v>2845519</v>
       </c>
       <c r="CL40">
-        <v>0</v>
+        <v>236289022</v>
       </c>
       <c r="CM40" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN40">
-        <v>9</v>
-      </c>
-      <c r="CO40">
-        <v>0</v>
-      </c>
-      <c r="CP40">
-        <v>236289022</v>
+        <v>3</v>
+      </c>
+      <c r="CN40" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO40" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP40" t="s">
+        <v>3</v>
       </c>
       <c r="CQ40" t="s">
         <v>3</v>
@@ -40681,80 +40214,68 @@
       <c r="CT40" t="s">
         <v>3</v>
       </c>
-      <c r="CU40" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV40" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW40" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX40" t="s">
-        <v>3</v>
+      <c r="CU40">
+        <v>-295399</v>
+      </c>
+      <c r="CV40">
+        <v>49026345</v>
+      </c>
+      <c r="CW40">
+        <v>0</v>
+      </c>
+      <c r="CX40">
+        <v>588855</v>
       </c>
       <c r="CY40">
-        <v>-295399</v>
+        <v>8255763</v>
       </c>
       <c r="CZ40">
-        <v>49026345</v>
+        <v>-35754011</v>
       </c>
       <c r="DA40">
         <v>0</v>
       </c>
       <c r="DB40">
-        <v>588855</v>
+        <v>-132621</v>
       </c>
       <c r="DC40">
-        <v>8255763</v>
+        <v>-1999977</v>
       </c>
       <c r="DD40">
-        <v>-35754011</v>
+        <v>0</v>
       </c>
       <c r="DE40">
         <v>0</v>
       </c>
       <c r="DF40">
-        <v>-132621</v>
+        <v>0</v>
       </c>
       <c r="DG40">
-        <v>-1999977</v>
+        <v>3472828</v>
       </c>
       <c r="DH40">
-        <v>0</v>
+        <v>625109</v>
       </c>
       <c r="DI40">
-        <v>0</v>
+        <v>2847719</v>
       </c>
       <c r="DJ40">
         <v>0</v>
       </c>
       <c r="DK40">
-        <v>3472828</v>
+        <v>0</v>
       </c>
       <c r="DL40">
-        <v>625109</v>
+        <v>2847719</v>
       </c>
       <c r="DM40">
-        <v>2847719</v>
+        <v>2200</v>
       </c>
       <c r="DN40">
-        <v>0</v>
-      </c>
-      <c r="DO40">
-        <v>0</v>
-      </c>
-      <c r="DP40">
-        <v>2847719</v>
-      </c>
-      <c r="DQ40">
-        <v>2200</v>
-      </c>
-      <c r="DR40">
         <v>2845519</v>
       </c>
     </row>
-    <row r="41" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>43830</v>
       </c>
@@ -41023,19 +40544,19 @@
         <v>6318653</v>
       </c>
       <c r="CL41">
-        <v>0</v>
+        <v>324743257</v>
       </c>
       <c r="CM41" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN41">
-        <v>12</v>
-      </c>
-      <c r="CO41">
-        <v>0</v>
-      </c>
-      <c r="CP41">
-        <v>324743257</v>
+        <v>3</v>
+      </c>
+      <c r="CN41" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO41" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP41" t="s">
+        <v>3</v>
       </c>
       <c r="CQ41" t="s">
         <v>3</v>
@@ -41049,80 +40570,68 @@
       <c r="CT41" t="s">
         <v>3</v>
       </c>
-      <c r="CU41" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV41" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW41" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX41" t="s">
-        <v>3</v>
+      <c r="CU41">
+        <v>494424</v>
+      </c>
+      <c r="CV41">
+        <v>71919369</v>
+      </c>
+      <c r="CW41">
+        <v>0</v>
+      </c>
+      <c r="CX41">
+        <v>696460</v>
       </c>
       <c r="CY41">
-        <v>494424</v>
+        <v>10630068</v>
       </c>
       <c r="CZ41">
-        <v>71919369</v>
+        <v>-50109035</v>
       </c>
       <c r="DA41">
         <v>0</v>
       </c>
       <c r="DB41">
-        <v>696460</v>
+        <v>-230255</v>
       </c>
       <c r="DC41">
-        <v>10630068</v>
+        <v>-2915374</v>
       </c>
       <c r="DD41">
-        <v>-50109035</v>
+        <v>0</v>
       </c>
       <c r="DE41">
         <v>0</v>
       </c>
       <c r="DF41">
-        <v>-230255</v>
+        <v>0</v>
       </c>
       <c r="DG41">
-        <v>-2915374</v>
+        <v>8731097</v>
       </c>
       <c r="DH41">
-        <v>0</v>
+        <v>2409782</v>
       </c>
       <c r="DI41">
-        <v>0</v>
+        <v>6321315</v>
       </c>
       <c r="DJ41">
         <v>0</v>
       </c>
       <c r="DK41">
-        <v>8731097</v>
+        <v>0</v>
       </c>
       <c r="DL41">
-        <v>2409782</v>
+        <v>6321315</v>
       </c>
       <c r="DM41">
-        <v>6321315</v>
+        <v>2662</v>
       </c>
       <c r="DN41">
-        <v>0</v>
-      </c>
-      <c r="DO41">
-        <v>0</v>
-      </c>
-      <c r="DP41">
-        <v>6321315</v>
-      </c>
-      <c r="DQ41">
-        <v>2662</v>
-      </c>
-      <c r="DR41">
         <v>6318653</v>
       </c>
     </row>
-    <row r="42" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>43921</v>
       </c>
@@ -41391,19 +40900,19 @@
         <v>-3346979</v>
       </c>
       <c r="CL42">
-        <v>0</v>
+        <v>72929973</v>
       </c>
       <c r="CM42" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN42">
-        <v>3</v>
-      </c>
-      <c r="CO42">
-        <v>0</v>
-      </c>
-      <c r="CP42">
-        <v>72929973</v>
+        <v>3</v>
+      </c>
+      <c r="CN42" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO42" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP42" t="s">
+        <v>3</v>
       </c>
       <c r="CQ42" t="s">
         <v>3</v>
@@ -41417,80 +40926,68 @@
       <c r="CT42" t="s">
         <v>3</v>
       </c>
-      <c r="CU42" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV42" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW42" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX42" t="s">
-        <v>3</v>
+      <c r="CU42">
+        <v>-286457</v>
+      </c>
+      <c r="CV42">
+        <v>17737352</v>
+      </c>
+      <c r="CW42">
+        <v>0</v>
+      </c>
+      <c r="CX42">
+        <v>81799</v>
       </c>
       <c r="CY42">
-        <v>-286457</v>
+        <v>2451390</v>
       </c>
       <c r="CZ42">
-        <v>17737352</v>
+        <v>-18352176</v>
       </c>
       <c r="DA42">
         <v>0</v>
       </c>
       <c r="DB42">
-        <v>81799</v>
+        <v>-173795</v>
       </c>
       <c r="DC42">
-        <v>2451390</v>
+        <v>-923172</v>
       </c>
       <c r="DD42">
-        <v>-18352176</v>
+        <v>0</v>
       </c>
       <c r="DE42">
         <v>0</v>
       </c>
       <c r="DF42">
-        <v>-173795</v>
+        <v>0</v>
       </c>
       <c r="DG42">
-        <v>-923172</v>
+        <v>-4081382</v>
       </c>
       <c r="DH42">
-        <v>0</v>
+        <v>-734649</v>
       </c>
       <c r="DI42">
-        <v>0</v>
+        <v>-3346733</v>
       </c>
       <c r="DJ42">
         <v>0</v>
       </c>
       <c r="DK42">
-        <v>-4081382</v>
+        <v>0</v>
       </c>
       <c r="DL42">
-        <v>-734649</v>
+        <v>-3346733</v>
       </c>
       <c r="DM42">
-        <v>-3346733</v>
+        <v>246</v>
       </c>
       <c r="DN42">
-        <v>0</v>
-      </c>
-      <c r="DO42">
-        <v>0</v>
-      </c>
-      <c r="DP42">
-        <v>-3346733</v>
-      </c>
-      <c r="DQ42">
-        <v>246</v>
-      </c>
-      <c r="DR42">
         <v>-3346979</v>
       </c>
     </row>
-    <row r="43" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>44012</v>
       </c>
@@ -41759,19 +41256,19 @@
         <v>-16185449</v>
       </c>
       <c r="CL43">
-        <v>0</v>
+        <v>123985497</v>
       </c>
       <c r="CM43" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN43">
-        <v>6</v>
-      </c>
-      <c r="CO43">
-        <v>0</v>
-      </c>
-      <c r="CP43">
-        <v>123985497</v>
+        <v>3</v>
+      </c>
+      <c r="CN43" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO43" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP43" t="s">
+        <v>3</v>
       </c>
       <c r="CQ43" t="s">
         <v>3</v>
@@ -41785,80 +41282,68 @@
       <c r="CT43" t="s">
         <v>3</v>
       </c>
-      <c r="CU43" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV43" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW43" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX43" t="s">
-        <v>3</v>
+      <c r="CU43">
+        <v>-1411932</v>
+      </c>
+      <c r="CV43">
+        <v>24864608</v>
+      </c>
+      <c r="CW43">
+        <v>0</v>
+      </c>
+      <c r="CX43">
+        <v>165098</v>
       </c>
       <c r="CY43">
-        <v>-1411932</v>
+        <v>4231673</v>
       </c>
       <c r="CZ43">
-        <v>24864608</v>
+        <v>-36890957</v>
       </c>
       <c r="DA43">
         <v>0</v>
       </c>
       <c r="DB43">
-        <v>165098</v>
+        <v>-102218</v>
       </c>
       <c r="DC43">
-        <v>4231673</v>
+        <v>-3542929</v>
       </c>
       <c r="DD43">
-        <v>-36890957</v>
+        <v>0</v>
       </c>
       <c r="DE43">
         <v>0</v>
       </c>
       <c r="DF43">
-        <v>-102218</v>
+        <v>0</v>
       </c>
       <c r="DG43">
-        <v>-3542929</v>
+        <v>-19738071</v>
       </c>
       <c r="DH43">
-        <v>0</v>
+        <v>-3552852</v>
       </c>
       <c r="DI43">
-        <v>0</v>
+        <v>-16185219</v>
       </c>
       <c r="DJ43">
         <v>0</v>
       </c>
       <c r="DK43">
-        <v>-19738071</v>
+        <v>0</v>
       </c>
       <c r="DL43">
-        <v>-3552852</v>
+        <v>-16185219</v>
       </c>
       <c r="DM43">
-        <v>-16185219</v>
+        <v>230</v>
       </c>
       <c r="DN43">
-        <v>0</v>
-      </c>
-      <c r="DO43">
-        <v>0</v>
-      </c>
-      <c r="DP43">
-        <v>-16185219</v>
-      </c>
-      <c r="DQ43">
-        <v>230</v>
-      </c>
-      <c r="DR43">
         <v>-16185449</v>
       </c>
     </row>
-    <row r="44" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>44104</v>
       </c>
@@ -42127,19 +41612,19 @@
         <v>-18950766</v>
       </c>
       <c r="CL44">
-        <v>0</v>
+        <v>190105592</v>
       </c>
       <c r="CM44" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN44">
-        <v>9</v>
-      </c>
-      <c r="CO44">
-        <v>0</v>
-      </c>
-      <c r="CP44">
-        <v>190105592</v>
+        <v>3</v>
+      </c>
+      <c r="CN44" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO44" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP44" t="s">
+        <v>3</v>
       </c>
       <c r="CQ44" t="s">
         <v>3</v>
@@ -42153,80 +41638,68 @@
       <c r="CT44" t="s">
         <v>3</v>
       </c>
-      <c r="CU44" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV44" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW44" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX44" t="s">
-        <v>3</v>
+      <c r="CU44">
+        <v>-20384</v>
+      </c>
+      <c r="CV44">
+        <v>35239546</v>
+      </c>
+      <c r="CW44">
+        <v>0</v>
+      </c>
+      <c r="CX44">
+        <v>202252</v>
       </c>
       <c r="CY44">
-        <v>-20384</v>
+        <v>6474367</v>
       </c>
       <c r="CZ44">
-        <v>35239546</v>
+        <v>-49309299</v>
       </c>
       <c r="DA44">
         <v>0</v>
       </c>
       <c r="DB44">
-        <v>202252</v>
+        <v>557509</v>
       </c>
       <c r="DC44">
-        <v>6474367</v>
+        <v>-3325956</v>
       </c>
       <c r="DD44">
-        <v>-49309299</v>
+        <v>0</v>
       </c>
       <c r="DE44">
         <v>0</v>
       </c>
       <c r="DF44">
-        <v>557509</v>
+        <v>0</v>
       </c>
       <c r="DG44">
-        <v>-3325956</v>
+        <v>-23110315</v>
       </c>
       <c r="DH44">
-        <v>0</v>
+        <v>-4159857</v>
       </c>
       <c r="DI44">
-        <v>0</v>
+        <v>-18950458</v>
       </c>
       <c r="DJ44">
         <v>0</v>
       </c>
       <c r="DK44">
-        <v>-23110315</v>
+        <v>0</v>
       </c>
       <c r="DL44">
-        <v>-4159857</v>
+        <v>-18950458</v>
       </c>
       <c r="DM44">
-        <v>-18950458</v>
+        <v>308</v>
       </c>
       <c r="DN44">
-        <v>0</v>
-      </c>
-      <c r="DO44">
-        <v>0</v>
-      </c>
-      <c r="DP44">
-        <v>-18950458</v>
-      </c>
-      <c r="DQ44">
-        <v>308</v>
-      </c>
-      <c r="DR44">
         <v>-18950766</v>
       </c>
     </row>
-    <row r="45" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44196</v>
       </c>
@@ -42495,19 +41968,19 @@
         <v>-13161044</v>
       </c>
       <c r="CL45">
-        <v>0</v>
+        <v>291189414</v>
       </c>
       <c r="CM45" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN45">
-        <v>12</v>
-      </c>
-      <c r="CO45">
-        <v>0</v>
-      </c>
-      <c r="CP45">
-        <v>291189414</v>
+        <v>3</v>
+      </c>
+      <c r="CN45" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO45" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP45" t="s">
+        <v>3</v>
       </c>
       <c r="CQ45" t="s">
         <v>3</v>
@@ -42521,80 +41994,68 @@
       <c r="CT45" t="s">
         <v>3</v>
       </c>
-      <c r="CU45" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV45" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW45" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX45" t="s">
-        <v>3</v>
+      <c r="CU45">
+        <v>-682858</v>
+      </c>
+      <c r="CV45">
+        <v>53967839</v>
+      </c>
+      <c r="CW45">
+        <v>0</v>
+      </c>
+      <c r="CX45">
+        <v>230589</v>
       </c>
       <c r="CY45">
-        <v>-682858</v>
+        <v>8737967</v>
       </c>
       <c r="CZ45">
-        <v>53967839</v>
+        <v>-58511829</v>
       </c>
       <c r="DA45">
         <v>0</v>
       </c>
       <c r="DB45">
-        <v>230589</v>
+        <v>314704</v>
       </c>
       <c r="DC45">
-        <v>8737967</v>
+        <v>-3352013</v>
       </c>
       <c r="DD45">
-        <v>-58511829</v>
+        <v>0</v>
       </c>
       <c r="DE45">
         <v>0</v>
       </c>
       <c r="DF45">
-        <v>314704</v>
+        <v>0</v>
       </c>
       <c r="DG45">
-        <v>-3352013</v>
+        <v>-16088677</v>
       </c>
       <c r="DH45">
-        <v>0</v>
+        <v>-2928139</v>
       </c>
       <c r="DI45">
-        <v>0</v>
+        <v>-13160538</v>
       </c>
       <c r="DJ45">
         <v>0</v>
       </c>
       <c r="DK45">
-        <v>-16088677</v>
+        <v>0</v>
       </c>
       <c r="DL45">
-        <v>-2928139</v>
+        <v>-13160538</v>
       </c>
       <c r="DM45">
-        <v>-13160538</v>
+        <v>506</v>
       </c>
       <c r="DN45">
-        <v>0</v>
-      </c>
-      <c r="DO45">
-        <v>0</v>
-      </c>
-      <c r="DP45">
-        <v>-13160538</v>
-      </c>
-      <c r="DQ45">
-        <v>506</v>
-      </c>
-      <c r="DR45">
         <v>-13161044</v>
       </c>
     </row>
-    <row r="46" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>44286</v>
       </c>
@@ -42863,19 +42324,19 @@
         <v>4133168</v>
       </c>
       <c r="CL46">
-        <v>0</v>
+        <v>72938864</v>
       </c>
       <c r="CM46" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN46">
-        <v>3</v>
-      </c>
-      <c r="CO46">
-        <v>0</v>
-      </c>
-      <c r="CP46">
-        <v>72938864</v>
+        <v>3</v>
+      </c>
+      <c r="CN46" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO46" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP46" t="s">
+        <v>3</v>
       </c>
       <c r="CQ46" t="s">
         <v>3</v>
@@ -42889,80 +42350,68 @@
       <c r="CT46" t="s">
         <v>3</v>
       </c>
-      <c r="CU46" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV46" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW46" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX46" t="s">
-        <v>3</v>
+      <c r="CU46">
+        <v>-57760</v>
+      </c>
+      <c r="CV46">
+        <v>13983876</v>
+      </c>
+      <c r="CW46">
+        <v>0</v>
+      </c>
+      <c r="CX46">
+        <v>43777</v>
       </c>
       <c r="CY46">
-        <v>-57760</v>
+        <v>2292219</v>
       </c>
       <c r="CZ46">
-        <v>13983876</v>
+        <v>-6368386</v>
       </c>
       <c r="DA46">
         <v>0</v>
       </c>
       <c r="DB46">
-        <v>43777</v>
+        <v>-351960</v>
       </c>
       <c r="DC46">
-        <v>2292219</v>
+        <v>-337525</v>
       </c>
       <c r="DD46">
-        <v>-6368386</v>
+        <v>0</v>
       </c>
       <c r="DE46">
         <v>0</v>
       </c>
       <c r="DF46">
-        <v>-351960</v>
+        <v>0</v>
       </c>
       <c r="DG46">
-        <v>-337525</v>
+        <v>4677563</v>
       </c>
       <c r="DH46">
-        <v>0</v>
+        <v>544311</v>
       </c>
       <c r="DI46">
-        <v>0</v>
+        <v>4133252</v>
       </c>
       <c r="DJ46">
         <v>0</v>
       </c>
       <c r="DK46">
-        <v>4677563</v>
+        <v>0</v>
       </c>
       <c r="DL46">
-        <v>544311</v>
+        <v>4133252</v>
       </c>
       <c r="DM46">
-        <v>4133252</v>
+        <v>84</v>
       </c>
       <c r="DN46">
-        <v>0</v>
-      </c>
-      <c r="DO46">
-        <v>0</v>
-      </c>
-      <c r="DP46">
-        <v>4133252</v>
-      </c>
-      <c r="DQ46">
-        <v>84</v>
-      </c>
-      <c r="DR46">
         <v>4133168</v>
       </c>
     </row>
-    <row r="47" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>44377</v>
       </c>
@@ -43231,19 +42680,19 @@
         <v>12197744</v>
       </c>
       <c r="CL47">
-        <v>0</v>
+        <v>161615171</v>
       </c>
       <c r="CM47" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN47">
-        <v>6</v>
-      </c>
-      <c r="CO47">
-        <v>0</v>
-      </c>
-      <c r="CP47">
-        <v>161615171</v>
+        <v>3</v>
+      </c>
+      <c r="CN47" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO47" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP47" t="s">
+        <v>3</v>
       </c>
       <c r="CQ47" t="s">
         <v>3</v>
@@ -43257,80 +42706,68 @@
       <c r="CT47" t="s">
         <v>3</v>
       </c>
-      <c r="CU47" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV47" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW47" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX47" t="s">
-        <v>3</v>
+      <c r="CU47">
+        <v>-21201</v>
+      </c>
+      <c r="CV47">
+        <v>31805298</v>
+      </c>
+      <c r="CW47">
+        <v>0</v>
+      </c>
+      <c r="CX47">
+        <v>75115</v>
       </c>
       <c r="CY47">
-        <v>-21201</v>
+        <v>4456568</v>
       </c>
       <c r="CZ47">
-        <v>31805298</v>
+        <v>-11894742</v>
       </c>
       <c r="DA47">
         <v>0</v>
       </c>
       <c r="DB47">
-        <v>75115</v>
+        <v>-325066</v>
       </c>
       <c r="DC47">
-        <v>4456568</v>
+        <v>-1343198</v>
       </c>
       <c r="DD47">
-        <v>-11894742</v>
+        <v>0</v>
       </c>
       <c r="DE47">
         <v>0</v>
       </c>
       <c r="DF47">
-        <v>-325066</v>
+        <v>0</v>
       </c>
       <c r="DG47">
-        <v>-1343198</v>
+        <v>13860839</v>
       </c>
       <c r="DH47">
-        <v>0</v>
+        <v>1663301</v>
       </c>
       <c r="DI47">
-        <v>0</v>
+        <v>12197538</v>
       </c>
       <c r="DJ47">
         <v>0</v>
       </c>
       <c r="DK47">
-        <v>13860839</v>
+        <v>0</v>
       </c>
       <c r="DL47">
-        <v>1663301</v>
+        <v>12197538</v>
       </c>
       <c r="DM47">
-        <v>12197538</v>
+        <v>-206</v>
       </c>
       <c r="DN47">
-        <v>0</v>
-      </c>
-      <c r="DO47">
-        <v>0</v>
-      </c>
-      <c r="DP47">
-        <v>12197538</v>
-      </c>
-      <c r="DQ47">
-        <v>-206</v>
-      </c>
-      <c r="DR47">
         <v>12197744</v>
       </c>
     </row>
-    <row r="48" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>44469</v>
       </c>
@@ -43599,19 +43036,19 @@
         <v>23140400</v>
       </c>
       <c r="CL48">
-        <v>0</v>
+        <v>273237734</v>
       </c>
       <c r="CM48" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN48">
-        <v>9</v>
-      </c>
-      <c r="CO48">
-        <v>0</v>
-      </c>
-      <c r="CP48">
-        <v>273237734</v>
+        <v>3</v>
+      </c>
+      <c r="CN48" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO48" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP48" t="s">
+        <v>3</v>
       </c>
       <c r="CQ48" t="s">
         <v>3</v>
@@ -43625,80 +43062,68 @@
       <c r="CT48" t="s">
         <v>3</v>
       </c>
-      <c r="CU48" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV48" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW48" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX48" t="s">
-        <v>3</v>
+      <c r="CU48">
+        <v>-36993</v>
+      </c>
+      <c r="CV48">
+        <v>51742984</v>
+      </c>
+      <c r="CW48">
+        <v>0</v>
+      </c>
+      <c r="CX48">
+        <v>145982</v>
       </c>
       <c r="CY48">
-        <v>-36993</v>
+        <v>6618548</v>
       </c>
       <c r="CZ48">
-        <v>51742984</v>
+        <v>-17264881</v>
       </c>
       <c r="DA48">
         <v>0</v>
       </c>
       <c r="DB48">
-        <v>145982</v>
+        <v>-154000</v>
       </c>
       <c r="DC48">
-        <v>6618548</v>
+        <v>-1555826</v>
       </c>
       <c r="DD48">
-        <v>-17264881</v>
+        <v>0</v>
       </c>
       <c r="DE48">
         <v>0</v>
       </c>
       <c r="DF48">
-        <v>-154000</v>
+        <v>0</v>
       </c>
       <c r="DG48">
-        <v>-1555826</v>
+        <v>26295711</v>
       </c>
       <c r="DH48">
-        <v>0</v>
+        <v>3155485</v>
       </c>
       <c r="DI48">
-        <v>0</v>
+        <v>23140226</v>
       </c>
       <c r="DJ48">
         <v>0</v>
       </c>
       <c r="DK48">
-        <v>26295711</v>
+        <v>0</v>
       </c>
       <c r="DL48">
-        <v>3155485</v>
+        <v>23140226</v>
       </c>
       <c r="DM48">
-        <v>23140226</v>
+        <v>-174</v>
       </c>
       <c r="DN48">
-        <v>0</v>
-      </c>
-      <c r="DO48">
-        <v>0</v>
-      </c>
-      <c r="DP48">
-        <v>23140226</v>
-      </c>
-      <c r="DQ48">
-        <v>-174</v>
-      </c>
-      <c r="DR48">
         <v>23140400</v>
       </c>
     </row>
-    <row r="49" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>44561</v>
       </c>
@@ -43967,19 +43392,19 @@
         <v>41690741</v>
       </c>
       <c r="CL49">
-        <v>0</v>
+        <v>403820306</v>
       </c>
       <c r="CM49" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN49">
-        <v>12</v>
-      </c>
-      <c r="CO49">
-        <v>0</v>
-      </c>
-      <c r="CP49">
-        <v>403820306</v>
+        <v>3</v>
+      </c>
+      <c r="CN49" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO49" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP49" t="s">
+        <v>3</v>
       </c>
       <c r="CQ49" t="s">
         <v>3</v>
@@ -43993,80 +43418,68 @@
       <c r="CT49" t="s">
         <v>3</v>
       </c>
-      <c r="CU49" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV49" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW49" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX49" t="s">
-        <v>3</v>
+      <c r="CU49">
+        <v>-59750</v>
+      </c>
+      <c r="CV49">
+        <v>81733863</v>
+      </c>
+      <c r="CW49">
+        <v>0</v>
+      </c>
+      <c r="CX49">
+        <v>341370</v>
       </c>
       <c r="CY49">
-        <v>-59750</v>
+        <v>8723704</v>
       </c>
       <c r="CZ49">
-        <v>81733863</v>
+        <v>-23865967</v>
       </c>
       <c r="DA49">
         <v>0</v>
       </c>
       <c r="DB49">
-        <v>341370</v>
+        <v>-44481</v>
       </c>
       <c r="DC49">
-        <v>8723704</v>
+        <v>-2065246</v>
       </c>
       <c r="DD49">
-        <v>-23865967</v>
+        <v>0</v>
       </c>
       <c r="DE49">
         <v>0</v>
       </c>
       <c r="DF49">
-        <v>-44481</v>
+        <v>0</v>
       </c>
       <c r="DG49">
-        <v>-2065246</v>
+        <v>47375835</v>
       </c>
       <c r="DH49">
-        <v>0</v>
+        <v>5685100</v>
       </c>
       <c r="DI49">
-        <v>0</v>
+        <v>41690735</v>
       </c>
       <c r="DJ49">
         <v>0</v>
       </c>
       <c r="DK49">
-        <v>47375835</v>
+        <v>0</v>
       </c>
       <c r="DL49">
-        <v>5685100</v>
+        <v>41690735</v>
       </c>
       <c r="DM49">
-        <v>41690735</v>
+        <v>-6</v>
       </c>
       <c r="DN49">
-        <v>0</v>
-      </c>
-      <c r="DO49">
-        <v>0</v>
-      </c>
-      <c r="DP49">
-        <v>41690735</v>
-      </c>
-      <c r="DQ49">
-        <v>-6</v>
-      </c>
-      <c r="DR49">
         <v>41690741</v>
       </c>
     </row>
-    <row r="50" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>44651</v>
       </c>
@@ -44335,19 +43748,19 @@
         <v>2549822</v>
       </c>
       <c r="CL50">
-        <v>0</v>
+        <v>87177067</v>
       </c>
       <c r="CM50" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN50">
-        <v>3</v>
-      </c>
-      <c r="CO50">
-        <v>0</v>
-      </c>
-      <c r="CP50">
-        <v>87177067</v>
+        <v>3</v>
+      </c>
+      <c r="CN50" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO50" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP50" t="s">
+        <v>3</v>
       </c>
       <c r="CQ50" t="s">
         <v>3</v>
@@ -44361,80 +43774,68 @@
       <c r="CT50" t="s">
         <v>3</v>
       </c>
-      <c r="CU50" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV50" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW50" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX50" t="s">
-        <v>3</v>
+      <c r="CU50">
+        <v>-22649</v>
+      </c>
+      <c r="CV50">
+        <v>15308273</v>
+      </c>
+      <c r="CW50">
+        <v>0</v>
+      </c>
+      <c r="CX50">
+        <v>259717</v>
       </c>
       <c r="CY50">
-        <v>-22649</v>
+        <v>2135438</v>
       </c>
       <c r="CZ50">
-        <v>15308273</v>
+        <v>-10726411</v>
       </c>
       <c r="DA50">
         <v>0</v>
       </c>
       <c r="DB50">
-        <v>259717</v>
+        <v>442302</v>
       </c>
       <c r="DC50">
-        <v>2135438</v>
+        <v>-250704</v>
       </c>
       <c r="DD50">
-        <v>-10726411</v>
+        <v>0</v>
       </c>
       <c r="DE50">
         <v>0</v>
       </c>
       <c r="DF50">
-        <v>442302</v>
+        <v>0</v>
       </c>
       <c r="DG50">
-        <v>-250704</v>
+        <v>2897739</v>
       </c>
       <c r="DH50">
-        <v>0</v>
+        <v>347729</v>
       </c>
       <c r="DI50">
-        <v>0</v>
+        <v>2550010</v>
       </c>
       <c r="DJ50">
         <v>0</v>
       </c>
       <c r="DK50">
-        <v>2897739</v>
+        <v>0</v>
       </c>
       <c r="DL50">
-        <v>347729</v>
+        <v>2550010</v>
       </c>
       <c r="DM50">
-        <v>2550010</v>
+        <v>188</v>
       </c>
       <c r="DN50">
-        <v>0</v>
-      </c>
-      <c r="DO50">
-        <v>0</v>
-      </c>
-      <c r="DP50">
-        <v>2550010</v>
-      </c>
-      <c r="DQ50">
-        <v>188</v>
-      </c>
-      <c r="DR50">
         <v>2549822</v>
       </c>
     </row>
-    <row r="51" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>44742</v>
       </c>
@@ -44703,19 +44104,19 @@
         <v>4691718</v>
       </c>
       <c r="CL51">
-        <v>0</v>
+        <v>179061547</v>
       </c>
       <c r="CM51" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN51">
-        <v>6</v>
-      </c>
-      <c r="CO51">
-        <v>0</v>
-      </c>
-      <c r="CP51">
-        <v>179061547</v>
+        <v>3</v>
+      </c>
+      <c r="CN51" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO51" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP51" t="s">
+        <v>3</v>
       </c>
       <c r="CQ51" t="s">
         <v>3</v>
@@ -44729,80 +44130,68 @@
       <c r="CT51" t="s">
         <v>3</v>
       </c>
-      <c r="CU51" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV51" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW51" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX51" t="s">
-        <v>3</v>
+      <c r="CU51">
+        <v>-71594</v>
+      </c>
+      <c r="CV51">
+        <v>31195524</v>
+      </c>
+      <c r="CW51">
+        <v>0</v>
+      </c>
+      <c r="CX51">
+        <v>515510</v>
       </c>
       <c r="CY51">
-        <v>-71594</v>
+        <v>4300131</v>
       </c>
       <c r="CZ51">
-        <v>31195524</v>
+        <v>-20559376</v>
       </c>
       <c r="DA51">
         <v>0</v>
       </c>
       <c r="DB51">
-        <v>515510</v>
+        <v>123288</v>
       </c>
       <c r="DC51">
-        <v>4300131</v>
+        <v>-1642894</v>
       </c>
       <c r="DD51">
-        <v>-20559376</v>
+        <v>0</v>
       </c>
       <c r="DE51">
         <v>0</v>
       </c>
       <c r="DF51">
-        <v>123288</v>
+        <v>0</v>
       </c>
       <c r="DG51">
-        <v>-1642894</v>
+        <v>5331921</v>
       </c>
       <c r="DH51">
-        <v>0</v>
+        <v>639831</v>
       </c>
       <c r="DI51">
-        <v>0</v>
+        <v>4692090</v>
       </c>
       <c r="DJ51">
         <v>0</v>
       </c>
       <c r="DK51">
-        <v>5331921</v>
+        <v>0</v>
       </c>
       <c r="DL51">
-        <v>639831</v>
+        <v>4692090</v>
       </c>
       <c r="DM51">
-        <v>4692090</v>
+        <v>372</v>
       </c>
       <c r="DN51">
-        <v>0</v>
-      </c>
-      <c r="DO51">
-        <v>0</v>
-      </c>
-      <c r="DP51">
-        <v>4692090</v>
-      </c>
-      <c r="DQ51">
-        <v>372</v>
-      </c>
-      <c r="DR51">
         <v>4691718</v>
       </c>
     </row>
-    <row r="52" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>44834</v>
       </c>
@@ -45071,19 +44460,19 @@
         <v>4906163</v>
       </c>
       <c r="CL52">
-        <v>0</v>
+        <v>262593903</v>
       </c>
       <c r="CM52" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN52">
-        <v>9</v>
-      </c>
-      <c r="CO52">
-        <v>0</v>
-      </c>
-      <c r="CP52">
-        <v>262593903</v>
+        <v>3</v>
+      </c>
+      <c r="CN52" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO52" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP52" t="s">
+        <v>3</v>
       </c>
       <c r="CQ52" t="s">
         <v>3</v>
@@ -45097,80 +44486,68 @@
       <c r="CT52" t="s">
         <v>3</v>
       </c>
-      <c r="CU52" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV52" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW52" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX52" t="s">
-        <v>3</v>
+      <c r="CU52">
+        <v>-66972</v>
+      </c>
+      <c r="CV52">
+        <v>44788132</v>
+      </c>
+      <c r="CW52">
+        <v>0</v>
+      </c>
+      <c r="CX52">
+        <v>878581</v>
       </c>
       <c r="CY52">
-        <v>-66972</v>
+        <v>6893481</v>
       </c>
       <c r="CZ52">
-        <v>44788132</v>
+        <v>-32225949</v>
       </c>
       <c r="DA52">
         <v>0</v>
       </c>
       <c r="DB52">
-        <v>878581</v>
+        <v>-687773</v>
       </c>
       <c r="DC52">
-        <v>6893481</v>
+        <v>-283666</v>
       </c>
       <c r="DD52">
-        <v>-32225949</v>
+        <v>0</v>
       </c>
       <c r="DE52">
         <v>0</v>
       </c>
       <c r="DF52">
-        <v>-687773</v>
+        <v>0</v>
       </c>
       <c r="DG52">
-        <v>-283666</v>
+        <v>5575844</v>
       </c>
       <c r="DH52">
-        <v>0</v>
+        <v>669101</v>
       </c>
       <c r="DI52">
-        <v>0</v>
+        <v>4906743</v>
       </c>
       <c r="DJ52">
         <v>0</v>
       </c>
       <c r="DK52">
-        <v>5575844</v>
+        <v>0</v>
       </c>
       <c r="DL52">
-        <v>669101</v>
+        <v>4906743</v>
       </c>
       <c r="DM52">
-        <v>4906743</v>
+        <v>580</v>
       </c>
       <c r="DN52">
-        <v>0</v>
-      </c>
-      <c r="DO52">
-        <v>0</v>
-      </c>
-      <c r="DP52">
-        <v>4906743</v>
-      </c>
-      <c r="DQ52">
-        <v>580</v>
-      </c>
-      <c r="DR52">
         <v>4906163</v>
       </c>
     </row>
-    <row r="53" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>44926</v>
       </c>
@@ -45439,19 +44816,19 @@
         <v>8870996</v>
       </c>
       <c r="CL53">
-        <v>0</v>
+        <v>368393931</v>
       </c>
       <c r="CM53" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN53">
-        <v>12</v>
-      </c>
-      <c r="CO53">
-        <v>0</v>
-      </c>
-      <c r="CP53">
-        <v>368393931</v>
+        <v>3</v>
+      </c>
+      <c r="CN53" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO53" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP53" t="s">
+        <v>3</v>
       </c>
       <c r="CQ53" t="s">
         <v>3</v>
@@ -45465,80 +44842,68 @@
       <c r="CT53" t="s">
         <v>3</v>
       </c>
-      <c r="CU53" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV53" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW53" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX53" t="s">
-        <v>3</v>
+      <c r="CU53">
+        <v>-92635</v>
+      </c>
+      <c r="CV53">
+        <v>64062510</v>
+      </c>
+      <c r="CW53">
+        <v>0</v>
+      </c>
+      <c r="CX53">
+        <v>1260829</v>
       </c>
       <c r="CY53">
-        <v>-92635</v>
+        <v>9379209</v>
       </c>
       <c r="CZ53">
-        <v>64062510</v>
+        <v>-43055983</v>
       </c>
       <c r="DA53">
         <v>0</v>
       </c>
       <c r="DB53">
-        <v>1260829</v>
+        <v>-665889</v>
       </c>
       <c r="DC53">
-        <v>9379209</v>
+        <v>-2140867</v>
       </c>
       <c r="DD53">
-        <v>-43055983</v>
+        <v>0</v>
       </c>
       <c r="DE53">
         <v>0</v>
       </c>
       <c r="DF53">
-        <v>-665889</v>
+        <v>0</v>
       </c>
       <c r="DG53">
-        <v>-2140867</v>
+        <v>10081391</v>
       </c>
       <c r="DH53">
-        <v>0</v>
+        <v>1209767</v>
       </c>
       <c r="DI53">
-        <v>0</v>
+        <v>8871624</v>
       </c>
       <c r="DJ53">
         <v>0</v>
       </c>
       <c r="DK53">
-        <v>10081391</v>
+        <v>0</v>
       </c>
       <c r="DL53">
-        <v>1209767</v>
+        <v>8871624</v>
       </c>
       <c r="DM53">
-        <v>8871624</v>
+        <v>628</v>
       </c>
       <c r="DN53">
-        <v>0</v>
-      </c>
-      <c r="DO53">
-        <v>0</v>
-      </c>
-      <c r="DP53">
-        <v>8871624</v>
-      </c>
-      <c r="DQ53">
-        <v>628</v>
-      </c>
-      <c r="DR53">
         <v>8870996</v>
       </c>
     </row>
-    <row r="54" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>45016</v>
       </c>
@@ -45807,19 +45172,19 @@
         <v>-6931681</v>
       </c>
       <c r="CL54">
-        <v>0</v>
+        <v>79042377</v>
       </c>
       <c r="CM54" t="s">
-        <v>1</v>
-      </c>
-      <c r="CN54">
-        <v>3</v>
-      </c>
-      <c r="CO54">
-        <v>0</v>
-      </c>
-      <c r="CP54">
-        <v>79042377</v>
+        <v>3</v>
+      </c>
+      <c r="CN54" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO54" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP54" t="s">
+        <v>3</v>
       </c>
       <c r="CQ54" t="s">
         <v>3</v>
@@ -45833,76 +45198,64 @@
       <c r="CT54" t="s">
         <v>3</v>
       </c>
-      <c r="CU54" t="s">
-        <v>3</v>
-      </c>
-      <c r="CV54" t="s">
-        <v>3</v>
-      </c>
-      <c r="CW54" t="s">
-        <v>3</v>
-      </c>
-      <c r="CX54" t="s">
-        <v>3</v>
+      <c r="CU54">
+        <v>-2125668</v>
+      </c>
+      <c r="CV54">
+        <v>9821069</v>
+      </c>
+      <c r="CW54">
+        <v>0</v>
+      </c>
+      <c r="CX54">
+        <v>603017</v>
       </c>
       <c r="CY54">
-        <v>-2125668</v>
+        <v>2594040</v>
       </c>
       <c r="CZ54">
-        <v>9821069</v>
+        <v>-13844912</v>
       </c>
       <c r="DA54">
         <v>0</v>
       </c>
       <c r="DB54">
-        <v>603017</v>
+        <v>-52818</v>
       </c>
       <c r="DC54">
-        <v>2594040</v>
+        <v>-1809684</v>
       </c>
       <c r="DD54">
-        <v>-13844912</v>
+        <v>0</v>
       </c>
       <c r="DE54">
         <v>0</v>
       </c>
       <c r="DF54">
-        <v>-52818</v>
+        <v>0</v>
       </c>
       <c r="DG54">
-        <v>-1809684</v>
+        <v>-7877368</v>
       </c>
       <c r="DH54">
-        <v>0</v>
+        <v>-945673</v>
       </c>
       <c r="DI54">
-        <v>0</v>
+        <v>-6931695</v>
       </c>
       <c r="DJ54">
         <v>0</v>
       </c>
       <c r="DK54">
-        <v>-7877368</v>
+        <v>0</v>
       </c>
       <c r="DL54">
-        <v>-945673</v>
+        <v>-6931695</v>
       </c>
       <c r="DM54">
-        <v>-6931695</v>
+        <v>-14</v>
       </c>
       <c r="DN54">
-        <v>0</v>
-      </c>
-      <c r="DO54">
-        <v>0</v>
-      </c>
-      <c r="DP54">
-        <v>-6931695</v>
-      </c>
-      <c r="DQ54">
-        <v>-14</v>
-      </c>
-      <c r="DR54">
         <v>-6931681</v>
       </c>
     </row>
